--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_14_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_14_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1330385.811084394</v>
+        <v>1328193.933931221</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3165573.335774306</v>
+        <v>3165573.335774305</v>
       </c>
     </row>
     <row r="9">
@@ -746,61 +746,61 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>36.39025468426209</v>
       </c>
       <c r="F3" t="n">
-        <v>36.39025468426208</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="H3" t="n">
+      <c r="W3" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -825,64 +825,64 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>21.20364308168184</v>
+      </c>
+      <c r="S4" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="T4" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>36.39025468426209</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -992,58 +992,58 @@
         <v>41.31500304752735</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
+      <c r="X6" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
       <c r="Y6" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="H7" t="n">
-        <v>15.18661160258025</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1214,64 +1214,64 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>36.39025468426209</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>36.39025468426208</v>
+      </c>
+      <c r="V9" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="T9" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1299,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>15.18661160258025</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>15.18661160258025</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>352.8210432356191</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>395.9513258013682</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>271.5679831933489</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>50.17164010427805</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U11" t="n">
-        <v>61.42619070291013</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1463,10 +1463,10 @@
         <v>82.55</v>
       </c>
       <c r="G12" t="n">
-        <v>83.76476917948101</v>
+        <v>83.76476917948099</v>
       </c>
       <c r="H12" t="n">
-        <v>33.9158123956896</v>
+        <v>33.91581239568959</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I13" t="n">
-        <v>68.44914407541627</v>
+        <v>68.44914407541626</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695713</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>151.9486003641521</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>395.9513258013682</v>
       </c>
       <c r="H14" t="n">
-        <v>234.3477106209729</v>
+        <v>271.5679831933489</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>50.17164010427805</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U14" t="n">
         <v>256.5154774752252</v>
@@ -1675,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1700,10 +1700,10 @@
         <v>82.55</v>
       </c>
       <c r="G15" t="n">
-        <v>83.76476917948101</v>
+        <v>83.76476917948099</v>
       </c>
       <c r="H15" t="n">
-        <v>33.9158123956896</v>
+        <v>33.91581239568959</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I16" t="n">
-        <v>68.44914407541627</v>
+        <v>68.44914407541626</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>146.4504960531559</v>
+        <v>146.4504960531557</v>
       </c>
       <c r="T16" t="n">
-        <v>240.6750725561512</v>
+        <v>240.675072556151</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6136207896231</v>
+        <v>275.6136207896234</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>50.17164010427805</v>
       </c>
       <c r="T17" t="n">
         <v>211.5956667680352</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>18.79711641351432</v>
       </c>
       <c r="W17" t="n">
-        <v>322.7227486945636</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -1937,10 +1937,10 @@
         <v>82.55</v>
       </c>
       <c r="G18" t="n">
-        <v>83.76476917948101</v>
+        <v>83.76476917948099</v>
       </c>
       <c r="H18" t="n">
-        <v>33.9158123956896</v>
+        <v>33.91581239568959</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I19" t="n">
-        <v>68.44914407541627</v>
+        <v>68.44914407541626</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>50.17164010427808</v>
+        <v>50.17164010427805</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U20" t="n">
         <v>256.5154774752252</v>
@@ -2143,13 +2143,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>49.52363970453974</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>294.0734545179088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2174,10 +2174,10 @@
         <v>82.55</v>
       </c>
       <c r="G21" t="n">
-        <v>83.76476917948101</v>
+        <v>83.76476917948099</v>
       </c>
       <c r="H21" t="n">
-        <v>33.9158123956896</v>
+        <v>33.91581239568959</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I22" t="n">
-        <v>68.44914407541627</v>
+        <v>68.44914407541626</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>50.17164010427808</v>
+        <v>50.17164010427837</v>
       </c>
       <c r="T23" t="n">
         <v>211.5956667680352</v>
       </c>
       <c r="U23" t="n">
-        <v>256.5154774752252</v>
+        <v>256.5154774752247</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -2411,10 +2411,10 @@
         <v>82.55</v>
       </c>
       <c r="G24" t="n">
-        <v>83.76476917948101</v>
+        <v>83.76476917948099</v>
       </c>
       <c r="H24" t="n">
-        <v>33.9158123956896</v>
+        <v>33.91581239568959</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I25" t="n">
-        <v>68.44914407541627</v>
+        <v>68.44914407541626</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>50.17164010427808</v>
+        <v>50.17164010427805</v>
       </c>
       <c r="T26" t="n">
         <v>211.5956667680352</v>
       </c>
       <c r="U26" t="n">
-        <v>256.5154774752252</v>
+        <v>256.5154774752247</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -2648,10 +2648,10 @@
         <v>82.55</v>
       </c>
       <c r="G27" t="n">
-        <v>83.76476917948101</v>
+        <v>83.76476917948099</v>
       </c>
       <c r="H27" t="n">
-        <v>33.9158123956896</v>
+        <v>33.91581239568959</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I28" t="n">
-        <v>68.44914407541627</v>
+        <v>68.44914407541626</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>395.9513258013682</v>
       </c>
       <c r="H29" t="n">
-        <v>271.5679831933494</v>
+        <v>271.5679831933489</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>50.17164010427808</v>
+        <v>50.17164010427805</v>
       </c>
       <c r="T29" t="n">
         <v>211.5956667680352</v>
       </c>
       <c r="U29" t="n">
-        <v>256.5154774752252</v>
+        <v>256.5154774752247</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -2885,10 +2885,10 @@
         <v>82.55</v>
       </c>
       <c r="G30" t="n">
-        <v>83.76476917948101</v>
+        <v>83.76476917948099</v>
       </c>
       <c r="H30" t="n">
-        <v>33.9158123956896</v>
+        <v>33.91581239568959</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I31" t="n">
-        <v>68.44914407541627</v>
+        <v>68.44914407541626</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>50.17164010427837</v>
+        <v>50.17164010427805</v>
       </c>
       <c r="T32" t="n">
-        <v>211.5956667680352</v>
+        <v>211.595666768035</v>
       </c>
       <c r="U32" t="n">
-        <v>256.5154774752252</v>
+        <v>256.5154774752247</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -3122,10 +3122,10 @@
         <v>82.55</v>
       </c>
       <c r="G33" t="n">
-        <v>83.76476917948101</v>
+        <v>83.76476917948099</v>
       </c>
       <c r="H33" t="n">
-        <v>33.9158123956896</v>
+        <v>33.91581239568959</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I34" t="n">
-        <v>68.44914407541627</v>
+        <v>68.44914407541626</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>202.12024046843</v>
       </c>
       <c r="C35" t="n">
-        <v>247.2091765281245</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>395.9513258013682</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>271.5679831933489</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U35" t="n">
         <v>256.5154774752252</v>
@@ -3331,7 +3331,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -3359,10 +3359,10 @@
         <v>82.55</v>
       </c>
       <c r="G36" t="n">
-        <v>83.76476917948101</v>
+        <v>83.76476917948099</v>
       </c>
       <c r="H36" t="n">
-        <v>33.9158123956896</v>
+        <v>33.91581239568959</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I37" t="n">
-        <v>68.44914407541627</v>
+        <v>68.44914407541626</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3505,13 +3505,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>368.4861616954367</v>
+        <v>135.3489521733347</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>50.17164010427805</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U38" t="n">
         <v>256.5154774752252</v>
@@ -3565,7 +3565,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3596,10 +3596,10 @@
         <v>82.55</v>
       </c>
       <c r="G39" t="n">
-        <v>83.76476917948101</v>
+        <v>83.76476917948099</v>
       </c>
       <c r="H39" t="n">
-        <v>33.9158123956896</v>
+        <v>33.91581239568959</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I40" t="n">
-        <v>68.44914407541627</v>
+        <v>68.44914407541626</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3742,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>395.9513258013682</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>271.5679831933489</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>50.17164010427808</v>
+        <v>50.17164010427805</v>
       </c>
       <c r="T41" t="n">
         <v>211.5956667680352</v>
@@ -3802,10 +3802,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>373.9627873213495</v>
+        <v>143.3108838557502</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3833,10 +3833,10 @@
         <v>82.55</v>
       </c>
       <c r="G42" t="n">
-        <v>83.76476917948101</v>
+        <v>83.76476917948099</v>
       </c>
       <c r="H42" t="n">
-        <v>33.9158123956896</v>
+        <v>33.91581239568959</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I43" t="n">
-        <v>68.44914407541627</v>
+        <v>68.44914407541626</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3982,16 +3982,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>99.65291947030428</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>356.2107572840431</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>271.5679831933489</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>50.17164010427805</v>
       </c>
       <c r="T44" t="n">
         <v>211.5956667680352</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4070,10 +4070,10 @@
         <v>82.55</v>
       </c>
       <c r="G45" t="n">
-        <v>83.76476917948101</v>
+        <v>83.76476917948099</v>
       </c>
       <c r="H45" t="n">
-        <v>33.9158123956896</v>
+        <v>33.91581239568959</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I46" t="n">
-        <v>68.44914407541627</v>
+        <v>68.44914407541626</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>240.675072556151</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6136207896231</v>
+        <v>275.6136207896234</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>269.3061403695713</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4339,16 +4339,16 @@
         <v>44.20705326085427</v>
       </c>
       <c r="M2" t="n">
-        <v>44.20705326085427</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="N2" t="n">
-        <v>85.10890627790634</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="O2" t="n">
-        <v>126.0107592949584</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="P2" t="n">
-        <v>126.0107592949584</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Q2" t="n">
         <v>165.2600121901094</v>
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>123.5276858794757</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="C3" t="n">
-        <v>123.5276858794757</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="D3" t="n">
-        <v>123.5276858794757</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="E3" t="n">
-        <v>123.5276858794757</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F3" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G3" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H3" t="n">
         <v>3.305200243802188</v>
@@ -4424,7 +4424,7 @@
         <v>3.305200243802188</v>
       </c>
       <c r="O3" t="n">
-        <v>44.20705326085427</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="P3" t="n">
         <v>83.45630615600527</v>
@@ -4436,25 +4436,25 @@
         <v>165.2600121901094</v>
       </c>
       <c r="S3" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T3" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U3" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V3" t="n">
         <v>123.5276858794757</v>
       </c>
       <c r="W3" t="n">
-        <v>123.5276858794757</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="X3" t="n">
-        <v>123.5276858794757</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="Y3" t="n">
-        <v>123.5276858794757</v>
+        <v>81.79535956884203</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>123.5276858794757</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="C4" t="n">
-        <v>123.5276858794757</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D4" t="n">
-        <v>123.5276858794757</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E4" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F4" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G4" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H4" t="n">
         <v>3.305200243802188</v>
@@ -4488,52 +4488,52 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J4" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K4" t="n">
-        <v>3.305200243802188</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="L4" t="n">
-        <v>3.305200243802188</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="M4" t="n">
-        <v>44.20705326085427</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="N4" t="n">
-        <v>85.10890627790634</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="O4" t="n">
-        <v>85.10890627790634</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="P4" t="n">
-        <v>124.3581591730573</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="Q4" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="R4" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="S4" t="n">
-        <v>165.2600121901094</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="T4" t="n">
-        <v>165.2600121901094</v>
+        <v>60.37753827421391</v>
       </c>
       <c r="U4" t="n">
-        <v>165.2600121901094</v>
+        <v>18.64521196358022</v>
       </c>
       <c r="V4" t="n">
-        <v>165.2600121901094</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="W4" t="n">
-        <v>165.2600121901094</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="X4" t="n">
-        <v>123.5276858794757</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="Y4" t="n">
-        <v>123.5276858794757</v>
+        <v>3.305200243802188</v>
       </c>
     </row>
     <row r="5">
@@ -4582,7 +4582,7 @@
         <v>83.45630615600527</v>
       </c>
       <c r="O5" t="n">
-        <v>124.3581591730573</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P5" t="n">
         <v>124.3581591730573</v>
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86.76985286506957</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="C6" t="n">
-        <v>86.76985286506957</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="D6" t="n">
-        <v>86.76985286506957</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="E6" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F6" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="G6" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H6" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="I6" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="J6" t="n">
-        <v>3.305200243802188</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="K6" t="n">
-        <v>44.20705326085427</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="L6" t="n">
-        <v>44.20705326085427</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="M6" t="n">
         <v>83.45630615600527</v>
       </c>
       <c r="N6" t="n">
+        <v>83.45630615600527</v>
+      </c>
+      <c r="O6" t="n">
+        <v>83.45630615600527</v>
+      </c>
+      <c r="P6" t="n">
+        <v>83.45630615600527</v>
+      </c>
+      <c r="Q6" t="n">
         <v>124.3581591730573</v>
-      </c>
-      <c r="O6" t="n">
-        <v>165.2600121901094</v>
-      </c>
-      <c r="P6" t="n">
-        <v>165.2600121901094</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>165.2600121901094</v>
       </c>
       <c r="R6" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="S6" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T6" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U6" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V6" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W6" t="n">
         <v>123.5276858794757</v>
       </c>
       <c r="X6" t="n">
-        <v>123.5276858794757</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="Y6" t="n">
-        <v>86.76985286506957</v>
+        <v>81.79535956884203</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>102.1098645848476</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="C7" t="n">
-        <v>102.1098645848476</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="D7" t="n">
-        <v>102.1098645848476</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="E7" t="n">
-        <v>102.1098645848476</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F7" t="n">
-        <v>60.37753827421391</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="G7" t="n">
-        <v>18.64521196358022</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H7" t="n">
         <v>3.305200243802188</v>
@@ -4728,22 +4728,22 @@
         <v>44.20705326085427</v>
       </c>
       <c r="K7" t="n">
-        <v>44.20705326085427</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="L7" t="n">
-        <v>44.20705326085427</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="M7" t="n">
-        <v>85.10890627790634</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="N7" t="n">
-        <v>126.0107592949584</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="O7" t="n">
-        <v>126.0107592949584</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P7" t="n">
-        <v>165.2600121901094</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q7" t="n">
         <v>165.2600121901094</v>
@@ -4752,25 +4752,25 @@
         <v>143.8421908954813</v>
       </c>
       <c r="S7" t="n">
-        <v>102.1098645848476</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="T7" t="n">
-        <v>102.1098645848476</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="U7" t="n">
-        <v>102.1098645848476</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="V7" t="n">
-        <v>102.1098645848476</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="W7" t="n">
-        <v>102.1098645848476</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="X7" t="n">
-        <v>102.1098645848476</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="Y7" t="n">
-        <v>102.1098645848476</v>
+        <v>128.5021791757032</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>122.8380161568152</v>
+        <v>122.8380161568153</v>
       </c>
       <c r="C8" t="n">
-        <v>88.73594738064259</v>
+        <v>88.73594738064263</v>
       </c>
       <c r="D8" t="n">
-        <v>56.86656659549116</v>
+        <v>56.86656659549121</v>
       </c>
       <c r="E8" t="n">
-        <v>27.13222579419039</v>
+        <v>27.13222579419044</v>
       </c>
       <c r="F8" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802236</v>
       </c>
       <c r="G8" t="n">
         <v>3.305200243802188</v>
@@ -4804,25 +4804,25 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J8" t="n">
-        <v>3.305200243802188</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="K8" t="n">
-        <v>44.20705326085427</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="L8" t="n">
-        <v>44.20705326085427</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="M8" t="n">
-        <v>85.10890627790634</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="N8" t="n">
-        <v>85.10890627790634</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="O8" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="P8" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Q8" t="n">
         <v>165.2600121901094</v>
@@ -4843,7 +4843,7 @@
         <v>165.2600121901094</v>
       </c>
       <c r="W8" t="n">
-        <v>164.4449616415467</v>
+        <v>164.4449616415468</v>
       </c>
       <c r="X8" t="n">
         <v>149.3429022612615</v>
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>81.79535956884203</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="C9" t="n">
-        <v>45.03752655443588</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="D9" t="n">
-        <v>45.03752655443588</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="E9" t="n">
         <v>45.03752655443588</v>
       </c>
       <c r="F9" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G9" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H9" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="I9" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="J9" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="K9" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="L9" t="n">
-        <v>3.305200243802188</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="M9" t="n">
-        <v>3.305200243802188</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="N9" t="n">
-        <v>3.305200243802188</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="O9" t="n">
-        <v>44.20705326085427</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="P9" t="n">
-        <v>85.10890627790634</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q9" t="n">
-        <v>126.0107592949584</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="R9" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="S9" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T9" t="n">
-        <v>81.79535956884203</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U9" t="n">
-        <v>81.79535956884203</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="V9" t="n">
-        <v>81.79535956884203</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="W9" t="n">
-        <v>81.79535956884203</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="X9" t="n">
-        <v>81.79535956884203</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="Y9" t="n">
-        <v>81.79535956884203</v>
+        <v>86.76985286506957</v>
       </c>
     </row>
     <row r="10">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>60.37753827421391</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="C10" t="n">
-        <v>60.37753827421391</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D10" t="n">
-        <v>60.37753827421391</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E10" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F10" t="n">
         <v>3.305200243802188</v>
@@ -4965,19 +4965,19 @@
         <v>44.20705326085427</v>
       </c>
       <c r="K10" t="n">
-        <v>44.20705326085427</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="L10" t="n">
         <v>83.45630615600527</v>
       </c>
       <c r="M10" t="n">
-        <v>124.3581591730573</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="N10" t="n">
-        <v>124.3581591730573</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="O10" t="n">
-        <v>124.3581591730573</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P10" t="n">
         <v>124.3581591730573</v>
@@ -4989,25 +4989,25 @@
         <v>143.8421908954813</v>
       </c>
       <c r="S10" t="n">
-        <v>102.1098645848476</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="T10" t="n">
-        <v>102.1098645848476</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="U10" t="n">
-        <v>102.1098645848476</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="V10" t="n">
-        <v>102.1098645848476</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="W10" t="n">
-        <v>102.1098645848476</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="X10" t="n">
-        <v>102.1098645848476</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="Y10" t="n">
-        <v>102.1098645848476</v>
+        <v>3.305200243802188</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1757.628595824366</v>
+        <v>1128.964261531981</v>
       </c>
       <c r="C11" t="n">
-        <v>1757.628595824366</v>
+        <v>690.8217887154042</v>
       </c>
       <c r="D11" t="n">
-        <v>1321.718810998811</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="E11" t="n">
-        <v>887.9440661571057</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="F11" t="n">
-        <v>460.0766365663134</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="G11" t="n">
-        <v>60.12580242351726</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="H11" t="n">
         <v>60.12580242351726</v>
@@ -5041,25 +5041,25 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J11" t="n">
-        <v>234.7606604020848</v>
+        <v>328.2667510954463</v>
       </c>
       <c r="K11" t="n">
-        <v>978.8174653931108</v>
+        <v>508.6673623517432</v>
       </c>
       <c r="L11" t="n">
-        <v>1202.620375769794</v>
+        <v>732.4702727284269</v>
       </c>
       <c r="M11" t="n">
-        <v>1451.644235768083</v>
+        <v>981.4941327267151</v>
       </c>
       <c r="N11" t="n">
-        <v>1704.697562167573</v>
+        <v>1234.547459126206</v>
       </c>
       <c r="O11" t="n">
-        <v>2448.7543671586</v>
+        <v>1473.498539497731</v>
       </c>
       <c r="P11" t="n">
-        <v>2652.693585927067</v>
+        <v>2217.555344488757</v>
       </c>
       <c r="Q11" t="n">
         <v>2917.20399048531</v>
@@ -5068,25 +5068,25 @@
         <v>3006.290121175863</v>
       </c>
       <c r="S11" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="T11" t="n">
-        <v>3006.290121175863</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="U11" t="n">
-        <v>2944.243463900196</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="V11" t="n">
-        <v>2581.626513834022</v>
+        <v>2379.261750026545</v>
       </c>
       <c r="W11" t="n">
-        <v>2176.771059245055</v>
+        <v>1974.406295437578</v>
       </c>
       <c r="X11" t="n">
-        <v>1757.628595824366</v>
+        <v>1555.263832016889</v>
       </c>
       <c r="Y11" t="n">
-        <v>1757.628595824366</v>
+        <v>1555.263832016889</v>
       </c>
     </row>
     <row r="12">
@@ -5111,37 +5111,37 @@
         <v>178.9950767418714</v>
       </c>
       <c r="G12" t="n">
-        <v>94.38419878279969</v>
+        <v>94.38419878279967</v>
       </c>
       <c r="H12" t="n">
         <v>60.12580242351726</v>
       </c>
       <c r="I12" t="n">
-        <v>86.25132408734105</v>
+        <v>112.3149972477987</v>
       </c>
       <c r="J12" t="n">
-        <v>482.5000773542449</v>
+        <v>184.0054255484902</v>
       </c>
       <c r="K12" t="n">
-        <v>673.7775884730672</v>
+        <v>306.5357861977897</v>
       </c>
       <c r="L12" t="n">
-        <v>838.5347795517418</v>
+        <v>471.2929772764644</v>
       </c>
       <c r="M12" t="n">
-        <v>1030.798650445895</v>
+        <v>663.5568481706173</v>
       </c>
       <c r="N12" t="n">
-        <v>1228.151173903613</v>
+        <v>860.9093716283355</v>
       </c>
       <c r="O12" t="n">
-        <v>1408.690176922396</v>
+        <v>1041.448374647119</v>
       </c>
       <c r="P12" t="n">
-        <v>1553.588643444633</v>
+        <v>1186.346841169356</v>
       </c>
       <c r="Q12" t="n">
-        <v>1650.449431024751</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R12" t="n">
         <v>1697.561900409858</v>
@@ -5199,25 +5199,25 @@
         <v>60.12580242351726</v>
       </c>
       <c r="J13" t="n">
-        <v>191.6817584242374</v>
+        <v>105.1020732595476</v>
       </c>
       <c r="K13" t="n">
-        <v>540.3500421434335</v>
+        <v>399.772709694224</v>
       </c>
       <c r="L13" t="n">
-        <v>1053.139058957355</v>
+        <v>912.5617265081461</v>
       </c>
       <c r="M13" t="n">
-        <v>1303.573255757435</v>
+        <v>1471.766030621767</v>
       </c>
       <c r="N13" t="n">
-        <v>1843.181366743664</v>
+        <v>2011.374141607996</v>
       </c>
       <c r="O13" t="n">
-        <v>2352.768458191201</v>
+        <v>2520.961233055534</v>
       </c>
       <c r="P13" t="n">
-        <v>2777.215599969509</v>
+        <v>2945.408374833841</v>
       </c>
       <c r="Q13" t="n">
         <v>2998.677814292588</v>
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1560.568710195765</v>
+        <v>734.3877307010093</v>
       </c>
       <c r="C14" t="n">
-        <v>1560.568710195765</v>
+        <v>734.3877307010093</v>
       </c>
       <c r="D14" t="n">
-        <v>1124.65892537021</v>
+        <v>734.3877307010093</v>
       </c>
       <c r="E14" t="n">
-        <v>1124.65892537021</v>
+        <v>734.3877307010093</v>
       </c>
       <c r="F14" t="n">
-        <v>696.7914957794173</v>
+        <v>734.3877307010093</v>
       </c>
       <c r="G14" t="n">
-        <v>296.8406616366212</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="H14" t="n">
         <v>60.12580242351726</v>
@@ -5278,52 +5278,52 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J14" t="n">
-        <v>670.0153478550027</v>
+        <v>234.7606604020849</v>
       </c>
       <c r="K14" t="n">
-        <v>879.6308838212445</v>
+        <v>978.8174653931109</v>
       </c>
       <c r="L14" t="n">
-        <v>1103.433794197928</v>
+        <v>1202.620375769795</v>
       </c>
       <c r="M14" t="n">
-        <v>1352.457654196216</v>
+        <v>1451.644235768083</v>
       </c>
       <c r="N14" t="n">
-        <v>1605.510980595707</v>
+        <v>1704.697562167573</v>
       </c>
       <c r="O14" t="n">
-        <v>1844.462060967232</v>
+        <v>1943.648642539099</v>
       </c>
       <c r="P14" t="n">
-        <v>2048.4012797357</v>
+        <v>2687.705447530124</v>
       </c>
       <c r="Q14" t="n">
-        <v>2748.049925732253</v>
+        <v>2917.20399048531</v>
       </c>
       <c r="R14" t="n">
         <v>3006.290121175863</v>
       </c>
       <c r="S14" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="T14" t="n">
-        <v>3006.290121175863</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="U14" t="n">
-        <v>2747.183578271595</v>
+        <v>2482.77215718845</v>
       </c>
       <c r="V14" t="n">
-        <v>2384.566628205421</v>
+        <v>2120.155207122277</v>
       </c>
       <c r="W14" t="n">
-        <v>1979.711173616455</v>
+        <v>1715.29975253331</v>
       </c>
       <c r="X14" t="n">
-        <v>1560.568710195765</v>
+        <v>1296.157289112621</v>
       </c>
       <c r="Y14" t="n">
-        <v>1560.568710195765</v>
+        <v>887.8711654122741</v>
       </c>
     </row>
     <row r="15">
@@ -5348,7 +5348,7 @@
         <v>178.9950767418714</v>
       </c>
       <c r="G15" t="n">
-        <v>94.38419878279969</v>
+        <v>94.38419878279967</v>
       </c>
       <c r="H15" t="n">
         <v>60.12580242351726</v>
@@ -5357,28 +5357,28 @@
         <v>112.3149972477987</v>
       </c>
       <c r="J15" t="n">
-        <v>184.0054255484901</v>
+        <v>434.0744497294276</v>
       </c>
       <c r="K15" t="n">
-        <v>306.5357861977895</v>
+        <v>556.6048103787271</v>
       </c>
       <c r="L15" t="n">
-        <v>471.2929772764642</v>
+        <v>721.3620014574018</v>
       </c>
       <c r="M15" t="n">
-        <v>663.5568481706169</v>
+        <v>913.6258723515548</v>
       </c>
       <c r="N15" t="n">
-        <v>860.9093716283351</v>
+        <v>1110.978395809273</v>
       </c>
       <c r="O15" t="n">
-        <v>1408.690176922396</v>
+        <v>1291.517398828056</v>
       </c>
       <c r="P15" t="n">
-        <v>1553.588643444633</v>
+        <v>1436.415865350293</v>
       </c>
       <c r="Q15" t="n">
-        <v>1650.449431024751</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R15" t="n">
         <v>1697.561900409858</v>
@@ -5415,16 +5415,16 @@
         <v>1113.244639915734</v>
       </c>
       <c r="C16" t="n">
-        <v>940.6829283989592</v>
+        <v>940.682928398959</v>
       </c>
       <c r="D16" t="n">
-        <v>774.8049356004819</v>
+        <v>774.8049356004817</v>
       </c>
       <c r="E16" t="n">
-        <v>605.0469318512191</v>
+        <v>605.0469318512189</v>
       </c>
       <c r="F16" t="n">
-        <v>428.3398778129754</v>
+        <v>428.3398778129751</v>
       </c>
       <c r="G16" t="n">
         <v>263.3976759832894</v>
@@ -5436,25 +5436,25 @@
         <v>60.12580242351726</v>
       </c>
       <c r="J16" t="n">
-        <v>191.6817584242374</v>
+        <v>105.1020732595476</v>
       </c>
       <c r="K16" t="n">
-        <v>540.3500421434335</v>
+        <v>399.772709694224</v>
       </c>
       <c r="L16" t="n">
-        <v>1053.139058957355</v>
+        <v>912.5617265081461</v>
       </c>
       <c r="M16" t="n">
-        <v>1303.573255757435</v>
+        <v>1471.766030621767</v>
       </c>
       <c r="N16" t="n">
-        <v>1843.181366743664</v>
+        <v>2011.374141607996</v>
       </c>
       <c r="O16" t="n">
-        <v>2352.768458191201</v>
+        <v>2520.961233055534</v>
       </c>
       <c r="P16" t="n">
-        <v>2777.215599969509</v>
+        <v>2945.408374833841</v>
       </c>
       <c r="Q16" t="n">
         <v>2998.677814292588</v>
@@ -5469,7 +5469,7 @@
         <v>2615.254193287674</v>
       </c>
       <c r="U16" t="n">
-        <v>2336.856596530479</v>
+        <v>2336.856596530478</v>
       </c>
       <c r="V16" t="n">
         <v>2049.901088400909</v>
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1631.988855816266</v>
+        <v>1636.356583791138</v>
       </c>
       <c r="C17" t="n">
-        <v>1631.988855816266</v>
+        <v>1198.214110974561</v>
       </c>
       <c r="D17" t="n">
-        <v>1196.07907099071</v>
+        <v>762.3043261490054</v>
       </c>
       <c r="E17" t="n">
         <v>762.3043261490054</v>
@@ -5515,22 +5515,22 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J17" t="n">
-        <v>670.0153478550027</v>
+        <v>670.0153478550028</v>
       </c>
       <c r="K17" t="n">
-        <v>850.4159591112995</v>
+        <v>850.4159591112997</v>
       </c>
       <c r="L17" t="n">
-        <v>1074.218869487983</v>
+        <v>1074.218869487984</v>
       </c>
       <c r="M17" t="n">
-        <v>1323.242729486271</v>
+        <v>1323.242729486272</v>
       </c>
       <c r="N17" t="n">
         <v>1576.296055885762</v>
       </c>
       <c r="O17" t="n">
-        <v>1815.247136257287</v>
+        <v>1815.247136257288</v>
       </c>
       <c r="P17" t="n">
         <v>2048.4012797357</v>
@@ -5542,25 +5542,25 @@
         <v>3006.290121175863</v>
       </c>
       <c r="S17" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="T17" t="n">
-        <v>2792.557124440474</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="U17" t="n">
-        <v>2792.557124440474</v>
+        <v>2482.77215718845</v>
       </c>
       <c r="V17" t="n">
-        <v>2792.557124440474</v>
+        <v>2463.785170912173</v>
       </c>
       <c r="W17" t="n">
-        <v>2466.57455000152</v>
+        <v>2463.785170912173</v>
       </c>
       <c r="X17" t="n">
-        <v>2466.57455000152</v>
+        <v>2044.642707491484</v>
       </c>
       <c r="Y17" t="n">
-        <v>2058.288426301174</v>
+        <v>1636.356583791138</v>
       </c>
     </row>
     <row r="18">
@@ -5585,7 +5585,7 @@
         <v>178.9950767418714</v>
       </c>
       <c r="G18" t="n">
-        <v>94.38419878279969</v>
+        <v>94.38419878279967</v>
       </c>
       <c r="H18" t="n">
         <v>60.12580242351726</v>
@@ -5594,28 +5594,28 @@
         <v>112.3149972477987</v>
       </c>
       <c r="J18" t="n">
-        <v>508.5637505147025</v>
+        <v>434.0744497294276</v>
       </c>
       <c r="K18" t="n">
-        <v>631.0941111640019</v>
+        <v>556.6048103787271</v>
       </c>
       <c r="L18" t="n">
-        <v>795.8513022426765</v>
+        <v>721.3620014574018</v>
       </c>
       <c r="M18" t="n">
-        <v>988.1151731368294</v>
+        <v>913.6258723515548</v>
       </c>
       <c r="N18" t="n">
-        <v>1185.467696594547</v>
+        <v>1110.978395809273</v>
       </c>
       <c r="O18" t="n">
-        <v>1366.006699613331</v>
+        <v>1291.517398828056</v>
       </c>
       <c r="P18" t="n">
-        <v>1510.905166135568</v>
+        <v>1436.415865350293</v>
       </c>
       <c r="Q18" t="n">
-        <v>1607.765953715686</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R18" t="n">
         <v>1697.561900409858</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1113.244639915734</v>
+        <v>1113.244639915735</v>
       </c>
       <c r="C19" t="n">
-        <v>940.6829283989587</v>
+        <v>940.6829283989596</v>
       </c>
       <c r="D19" t="n">
-        <v>774.8049356004813</v>
+        <v>774.8049356004822</v>
       </c>
       <c r="E19" t="n">
-        <v>605.0469318512187</v>
+        <v>605.0469318512191</v>
       </c>
       <c r="F19" t="n">
-        <v>428.3398778129749</v>
+        <v>428.3398778129754</v>
       </c>
       <c r="G19" t="n">
         <v>263.3976759832894</v>
       </c>
       <c r="H19" t="n">
-        <v>129.2663519946448</v>
+        <v>129.2663519946445</v>
       </c>
       <c r="I19" t="n">
         <v>60.12580242351726</v>
@@ -5676,16 +5676,16 @@
         <v>191.6817584242374</v>
       </c>
       <c r="K19" t="n">
-        <v>540.3500421434335</v>
+        <v>540.3500421434336</v>
       </c>
       <c r="L19" t="n">
-        <v>1053.139058957355</v>
+        <v>744.3689516438138</v>
       </c>
       <c r="M19" t="n">
-        <v>1612.343363070976</v>
+        <v>1303.573255757435</v>
       </c>
       <c r="N19" t="n">
-        <v>2151.951474057205</v>
+        <v>1843.181366743664</v>
       </c>
       <c r="O19" t="n">
         <v>2352.768458191201</v>
@@ -5706,19 +5706,19 @@
         <v>2615.254193287674</v>
       </c>
       <c r="U19" t="n">
-        <v>2336.856596530478</v>
+        <v>2336.856596530479</v>
       </c>
       <c r="V19" t="n">
         <v>2049.901088400909</v>
       </c>
       <c r="W19" t="n">
-        <v>1777.8746839872</v>
+        <v>1777.874683987201</v>
       </c>
       <c r="X19" t="n">
         <v>1532.482929320613</v>
       </c>
       <c r="Y19" t="n">
-        <v>1305.063258634721</v>
+        <v>1305.063258634722</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1631.988855816266</v>
+        <v>2070.131328632843</v>
       </c>
       <c r="C20" t="n">
         <v>1631.988855816266</v>
@@ -5752,25 +5752,25 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J20" t="n">
-        <v>670.0153478550027</v>
+        <v>234.7606604020849</v>
       </c>
       <c r="K20" t="n">
-        <v>850.4159591112995</v>
+        <v>879.630883821244</v>
       </c>
       <c r="L20" t="n">
-        <v>1074.218869487983</v>
+        <v>1103.433794197928</v>
       </c>
       <c r="M20" t="n">
-        <v>1818.275674479009</v>
+        <v>1352.457654196216</v>
       </c>
       <c r="N20" t="n">
-        <v>2071.329000878499</v>
+        <v>1605.510980595707</v>
       </c>
       <c r="O20" t="n">
-        <v>2310.280081250025</v>
+        <v>1844.462060967232</v>
       </c>
       <c r="P20" t="n">
-        <v>2514.219300018493</v>
+        <v>2048.4012797357</v>
       </c>
       <c r="Q20" t="n">
         <v>2748.049925732253</v>
@@ -5782,22 +5782,22 @@
         <v>2955.611696828107</v>
       </c>
       <c r="T20" t="n">
-        <v>2955.611696828107</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="U20" t="n">
-        <v>2696.505153923839</v>
+        <v>2482.77215718845</v>
       </c>
       <c r="V20" t="n">
-        <v>2333.888203857666</v>
+        <v>2120.155207122277</v>
       </c>
       <c r="W20" t="n">
-        <v>1929.032749268699</v>
+        <v>2070.131328632843</v>
       </c>
       <c r="X20" t="n">
-        <v>1929.032749268699</v>
+        <v>2070.131328632843</v>
       </c>
       <c r="Y20" t="n">
-        <v>1631.988855816266</v>
+        <v>2070.131328632843</v>
       </c>
     </row>
     <row r="21">
@@ -5822,37 +5822,37 @@
         <v>178.9950767418714</v>
       </c>
       <c r="G21" t="n">
-        <v>94.38419878279969</v>
+        <v>94.38419878279967</v>
       </c>
       <c r="H21" t="n">
         <v>60.12580242351726</v>
       </c>
       <c r="I21" t="n">
-        <v>86.25132408734105</v>
+        <v>112.3149972477987</v>
       </c>
       <c r="J21" t="n">
-        <v>157.9417523880325</v>
+        <v>434.0744497294276</v>
       </c>
       <c r="K21" t="n">
-        <v>280.472113037332</v>
+        <v>556.6048103787271</v>
       </c>
       <c r="L21" t="n">
-        <v>445.2293041160066</v>
+        <v>721.3620014574018</v>
       </c>
       <c r="M21" t="n">
-        <v>637.4931750101595</v>
+        <v>913.6258723515548</v>
       </c>
       <c r="N21" t="n">
-        <v>834.8456984678776</v>
+        <v>1110.978395809273</v>
       </c>
       <c r="O21" t="n">
-        <v>1015.384701486661</v>
+        <v>1291.517398828056</v>
       </c>
       <c r="P21" t="n">
-        <v>1160.283168008898</v>
+        <v>1436.415865350293</v>
       </c>
       <c r="Q21" t="n">
-        <v>1650.449431024751</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R21" t="n">
         <v>1697.561900409858</v>
@@ -5910,13 +5910,13 @@
         <v>60.12580242351726</v>
       </c>
       <c r="J22" t="n">
-        <v>105.1020732595475</v>
+        <v>191.6817584242374</v>
       </c>
       <c r="K22" t="n">
-        <v>453.7703569787437</v>
+        <v>540.3500421434336</v>
       </c>
       <c r="L22" t="n">
-        <v>966.5593737926657</v>
+        <v>744.3689516438138</v>
       </c>
       <c r="M22" t="n">
         <v>1303.573255757435</v>
@@ -5980,7 +5980,7 @@
         <v>775.377742289751</v>
       </c>
       <c r="G23" t="n">
-        <v>375.4269081469547</v>
+        <v>375.4269081469535</v>
       </c>
       <c r="H23" t="n">
         <v>101.1158140122575</v>
@@ -5989,22 +5989,22 @@
         <v>155.3825509282454</v>
       </c>
       <c r="J23" t="n">
-        <v>711.0053594437429</v>
+        <v>711.005359443743</v>
       </c>
       <c r="K23" t="n">
         <v>1725.756262658218</v>
       </c>
       <c r="L23" t="n">
-        <v>1949.559173034901</v>
+        <v>1949.559173034902</v>
       </c>
       <c r="M23" t="n">
-        <v>2198.583033033189</v>
+        <v>2198.58303303319</v>
       </c>
       <c r="N23" t="n">
-        <v>2451.636359432679</v>
+        <v>2451.636359432681</v>
       </c>
       <c r="O23" t="n">
-        <v>3670.767106374512</v>
+        <v>3065.65276557085</v>
       </c>
       <c r="P23" t="n">
         <v>4097.901859172714</v>
@@ -6016,10 +6016,10 @@
         <v>5055.790700612876</v>
       </c>
       <c r="S23" t="n">
-        <v>5005.112276265121</v>
+        <v>5005.11227626512</v>
       </c>
       <c r="T23" t="n">
-        <v>4791.379279529732</v>
+        <v>4791.379279529731</v>
       </c>
       <c r="U23" t="n">
         <v>4532.272736625464</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3916.27488001858</v>
+        <v>599.0360914043008</v>
       </c>
       <c r="C24" t="n">
-        <v>3809.818418855222</v>
+        <v>492.5796302409431</v>
       </c>
       <c r="D24" t="n">
-        <v>3714.728130001775</v>
+        <v>397.4893413874964</v>
       </c>
       <c r="E24" t="n">
-        <v>3620.607715328729</v>
+        <v>303.3689267144501</v>
       </c>
       <c r="F24" t="n">
-        <v>3537.223876944891</v>
+        <v>219.9850883306117</v>
       </c>
       <c r="G24" t="n">
-        <v>3452.612998985819</v>
+        <v>135.37421037154</v>
       </c>
       <c r="H24" t="n">
-        <v>3418.354602626537</v>
+        <v>101.1158140122575</v>
       </c>
       <c r="I24" t="n">
-        <v>3444.48012429036</v>
+        <v>153.3050088365389</v>
       </c>
       <c r="J24" t="n">
-        <v>3516.170552591052</v>
+        <v>224.9954371372305</v>
       </c>
       <c r="K24" t="n">
-        <v>4032.006388676085</v>
+        <v>347.5257977865299</v>
       </c>
       <c r="L24" t="n">
-        <v>4196.76357975476</v>
+        <v>512.2829888652047</v>
       </c>
       <c r="M24" t="n">
-        <v>4389.027450648913</v>
+        <v>704.5468597593576</v>
       </c>
       <c r="N24" t="n">
-        <v>4586.379974106631</v>
+        <v>901.8993832170759</v>
       </c>
       <c r="O24" t="n">
-        <v>4766.918977125414</v>
+        <v>1082.438386235859</v>
       </c>
       <c r="P24" t="n">
-        <v>4911.817443647652</v>
+        <v>1227.336852758096</v>
       </c>
       <c r="Q24" t="n">
-        <v>5008.678231227769</v>
+        <v>1574.266664519152</v>
       </c>
       <c r="R24" t="n">
-        <v>5055.790700612876</v>
+        <v>1738.551911998599</v>
       </c>
       <c r="S24" t="n">
-        <v>5006.715907210569</v>
+        <v>1689.477118596291</v>
       </c>
       <c r="T24" t="n">
-        <v>4879.657880299899</v>
+        <v>1562.419091685621</v>
       </c>
       <c r="U24" t="n">
-        <v>4703.372268285048</v>
+        <v>1386.13347967077</v>
       </c>
       <c r="V24" t="n">
-        <v>4504.254750347048</v>
+        <v>1187.015961732769</v>
       </c>
       <c r="W24" t="n">
-        <v>4318.931996080242</v>
+        <v>1001.693207465963</v>
       </c>
       <c r="X24" t="n">
-        <v>4164.064560319122</v>
+        <v>846.8257717048432</v>
       </c>
       <c r="Y24" t="n">
-        <v>4037.578781098343</v>
+        <v>720.3399924840639</v>
       </c>
     </row>
     <row r="25">
@@ -6150,13 +6150,13 @@
         <v>146.0920848482878</v>
       </c>
       <c r="K25" t="n">
-        <v>494.760368567484</v>
+        <v>440.7627212829642</v>
       </c>
       <c r="L25" t="n">
-        <v>1007.549385381406</v>
+        <v>953.5517380968863</v>
       </c>
       <c r="M25" t="n">
-        <v>1566.753689495027</v>
+        <v>1512.756042210507</v>
       </c>
       <c r="N25" t="n">
         <v>2052.364153196736</v>
@@ -6205,7 +6205,7 @@
         <v>2511.072174364379</v>
       </c>
       <c r="C26" t="n">
-        <v>2072.929701547803</v>
+        <v>2072.929701547802</v>
       </c>
       <c r="D26" t="n">
         <v>1637.019916722247</v>
@@ -6214,61 +6214,61 @@
         <v>1203.245171880542</v>
       </c>
       <c r="F26" t="n">
-        <v>775.3777422897501</v>
+        <v>775.3777422897496</v>
       </c>
       <c r="G26" t="n">
-        <v>375.4269081469538</v>
+        <v>375.4269081469534</v>
       </c>
       <c r="H26" t="n">
         <v>101.1158140122575</v>
       </c>
       <c r="I26" t="n">
-        <v>155.3825509282454</v>
+        <v>155.3825509282453</v>
       </c>
       <c r="J26" t="n">
-        <v>711.0053594437429</v>
+        <v>711.005359443743</v>
       </c>
       <c r="K26" t="n">
         <v>1725.756262658218</v>
       </c>
       <c r="L26" t="n">
-        <v>2324.624498801546</v>
+        <v>1949.559173034902</v>
       </c>
       <c r="M26" t="n">
-        <v>2573.648358799834</v>
+        <v>2198.58303303319</v>
       </c>
       <c r="N26" t="n">
-        <v>2826.701685199324</v>
+        <v>2451.636359432681</v>
       </c>
       <c r="O26" t="n">
-        <v>3065.65276557085</v>
+        <v>3065.652765570848</v>
       </c>
       <c r="P26" t="n">
-        <v>4097.901859172714</v>
+        <v>4097.901859172713</v>
       </c>
       <c r="Q26" t="n">
-        <v>4797.550505169267</v>
+        <v>4797.550505169265</v>
       </c>
       <c r="R26" t="n">
-        <v>5055.790700612876</v>
+        <v>5055.790700612874</v>
       </c>
       <c r="S26" t="n">
-        <v>5005.11227626512</v>
+        <v>5005.112276265118</v>
       </c>
       <c r="T26" t="n">
-        <v>4791.379279529731</v>
+        <v>4791.37927952973</v>
       </c>
       <c r="U26" t="n">
-        <v>4532.272736625463</v>
+        <v>4532.272736625462</v>
       </c>
       <c r="V26" t="n">
         <v>4169.655786559289</v>
       </c>
       <c r="W26" t="n">
-        <v>3764.800331970323</v>
+        <v>3764.800331970322</v>
       </c>
       <c r="X26" t="n">
-        <v>3345.657868549634</v>
+        <v>3345.657868549633</v>
       </c>
       <c r="Y26" t="n">
         <v>2937.371744849287</v>
@@ -6287,16 +6287,16 @@
         <v>492.5796302409431</v>
       </c>
       <c r="D27" t="n">
-        <v>397.4893413874964</v>
+        <v>397.4893413874963</v>
       </c>
       <c r="E27" t="n">
-        <v>303.3689267144501</v>
+        <v>303.36892671445</v>
       </c>
       <c r="F27" t="n">
-        <v>219.9850883306117</v>
+        <v>219.9850883306116</v>
       </c>
       <c r="G27" t="n">
-        <v>135.37421037154</v>
+        <v>135.3742103715399</v>
       </c>
       <c r="H27" t="n">
         <v>101.1158140122575</v>
@@ -6311,22 +6311,22 @@
         <v>321.4621246260722</v>
       </c>
       <c r="L27" t="n">
-        <v>486.2193157047469</v>
+        <v>486.219315704747</v>
       </c>
       <c r="M27" t="n">
-        <v>678.4831865988998</v>
+        <v>678.4831865989</v>
       </c>
       <c r="N27" t="n">
-        <v>875.8357100566178</v>
+        <v>875.8357100566182</v>
       </c>
       <c r="O27" t="n">
         <v>1056.374713075401</v>
       </c>
       <c r="P27" t="n">
-        <v>1201.273179597638</v>
+        <v>1201.273179597639</v>
       </c>
       <c r="Q27" t="n">
-        <v>1574.266664519152</v>
+        <v>1691.439442613492</v>
       </c>
       <c r="R27" t="n">
         <v>1738.551911998599</v>
@@ -6375,34 +6375,34 @@
         <v>469.3298894017154</v>
       </c>
       <c r="G28" t="n">
-        <v>304.3876875720297</v>
+        <v>304.3876875720296</v>
       </c>
       <c r="H28" t="n">
-        <v>170.2563635833851</v>
+        <v>170.256363583385</v>
       </c>
       <c r="I28" t="n">
         <v>101.1158140122575</v>
       </c>
       <c r="J28" t="n">
-        <v>146.0920848482878</v>
+        <v>232.6717700129776</v>
       </c>
       <c r="K28" t="n">
-        <v>494.760368567484</v>
+        <v>581.3400537321738</v>
       </c>
       <c r="L28" t="n">
-        <v>1007.549385381406</v>
+        <v>785.3589632325541</v>
       </c>
       <c r="M28" t="n">
-        <v>1512.756042210508</v>
+        <v>1344.563267346175</v>
       </c>
       <c r="N28" t="n">
-        <v>2052.364153196736</v>
+        <v>1884.171378332404</v>
       </c>
       <c r="O28" t="n">
-        <v>2561.951244644274</v>
+        <v>2393.758469779942</v>
       </c>
       <c r="P28" t="n">
-        <v>2986.398386422581</v>
+        <v>2818.205611558249</v>
       </c>
       <c r="Q28" t="n">
         <v>3039.667825881328</v>
@@ -6442,7 +6442,7 @@
         <v>2511.072174364379</v>
       </c>
       <c r="C29" t="n">
-        <v>2072.929701547803</v>
+        <v>2072.929701547802</v>
       </c>
       <c r="D29" t="n">
         <v>1637.019916722247</v>
@@ -6451,10 +6451,10 @@
         <v>1203.245171880542</v>
       </c>
       <c r="F29" t="n">
-        <v>775.3777422897501</v>
+        <v>775.3777422897496</v>
       </c>
       <c r="G29" t="n">
-        <v>375.426908146954</v>
+        <v>375.4269081469534</v>
       </c>
       <c r="H29" t="n">
         <v>101.1158140122575</v>
@@ -6469,31 +6469,31 @@
         <v>1290.5015752053</v>
       </c>
       <c r="L29" t="n">
-        <v>2541.809773606987</v>
+        <v>2060.09768294289</v>
       </c>
       <c r="M29" t="n">
-        <v>2790.833633605275</v>
+        <v>2309.121542941178</v>
       </c>
       <c r="N29" t="n">
-        <v>3390.484744174065</v>
+        <v>2562.174869340668</v>
       </c>
       <c r="O29" t="n">
-        <v>4609.615491115896</v>
+        <v>3781.3056162825</v>
       </c>
       <c r="P29" t="n">
-        <v>4813.554709884365</v>
+        <v>4813.554709884364</v>
       </c>
       <c r="Q29" t="n">
-        <v>4966.704569922324</v>
+        <v>4966.704569922323</v>
       </c>
       <c r="R29" t="n">
-        <v>5055.790700612876</v>
+        <v>5055.790700612875</v>
       </c>
       <c r="S29" t="n">
-        <v>5005.11227626512</v>
+        <v>5005.112276265119</v>
       </c>
       <c r="T29" t="n">
-        <v>4791.379279529731</v>
+        <v>4791.37927952973</v>
       </c>
       <c r="U29" t="n">
         <v>4532.272736625463</v>
@@ -6524,46 +6524,46 @@
         <v>492.5796302409431</v>
       </c>
       <c r="D30" t="n">
-        <v>397.4893413874964</v>
+        <v>397.4893413874963</v>
       </c>
       <c r="E30" t="n">
-        <v>303.3689267144501</v>
+        <v>303.36892671445</v>
       </c>
       <c r="F30" t="n">
-        <v>219.9850883306117</v>
+        <v>219.9850883306116</v>
       </c>
       <c r="G30" t="n">
-        <v>135.37421037154</v>
+        <v>135.3742103715399</v>
       </c>
       <c r="H30" t="n">
         <v>101.1158140122575</v>
       </c>
       <c r="I30" t="n">
-        <v>127.2413356760813</v>
+        <v>153.3050088365389</v>
       </c>
       <c r="J30" t="n">
-        <v>523.4900889429852</v>
+        <v>549.5537621034428</v>
       </c>
       <c r="K30" t="n">
-        <v>646.0204495922845</v>
+        <v>672.0841227527422</v>
       </c>
       <c r="L30" t="n">
-        <v>810.7776406709592</v>
+        <v>836.841313831417</v>
       </c>
       <c r="M30" t="n">
-        <v>1003.041511565112</v>
+        <v>1029.10518472557</v>
       </c>
       <c r="N30" t="n">
-        <v>1200.39403502283</v>
+        <v>1226.457708183288</v>
       </c>
       <c r="O30" t="n">
-        <v>1380.933038041613</v>
+        <v>1406.996711202071</v>
       </c>
       <c r="P30" t="n">
-        <v>1525.83150456385</v>
+        <v>1551.895177724308</v>
       </c>
       <c r="Q30" t="n">
-        <v>1622.692292143968</v>
+        <v>1691.439442613492</v>
       </c>
       <c r="R30" t="n">
         <v>1738.551911998599</v>
@@ -6621,13 +6621,13 @@
         <v>101.1158140122575</v>
       </c>
       <c r="J31" t="n">
-        <v>146.0920848482878</v>
+        <v>232.6717700129776</v>
       </c>
       <c r="K31" t="n">
-        <v>272.5699464186321</v>
+        <v>581.3400537321738</v>
       </c>
       <c r="L31" t="n">
-        <v>785.3589632325543</v>
+        <v>1094.129070546096</v>
       </c>
       <c r="M31" t="n">
         <v>1344.563267346175</v>
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2511.072174364379</v>
+        <v>2511.07217436438</v>
       </c>
       <c r="C32" t="n">
         <v>2072.929701547802</v>
@@ -6688,7 +6688,7 @@
         <v>1203.245171880542</v>
       </c>
       <c r="F32" t="n">
-        <v>775.3777422897497</v>
+        <v>775.3777422897496</v>
       </c>
       <c r="G32" t="n">
         <v>375.4269081469535</v>
@@ -6700,28 +6700,28 @@
         <v>155.3825509282454</v>
       </c>
       <c r="J32" t="n">
-        <v>275.7506719908251</v>
+        <v>275.7506719908252</v>
       </c>
       <c r="K32" t="n">
-        <v>1290.5015752053</v>
+        <v>1120.641921854555</v>
       </c>
       <c r="L32" t="n">
-        <v>2060.097682942891</v>
+        <v>1344.444832231239</v>
       </c>
       <c r="M32" t="n">
-        <v>2309.121542941179</v>
+        <v>1593.468692229527</v>
       </c>
       <c r="N32" t="n">
-        <v>2562.174869340669</v>
+        <v>1846.522018629018</v>
       </c>
       <c r="O32" t="n">
-        <v>3781.305616282501</v>
+        <v>3065.65276557085</v>
       </c>
       <c r="P32" t="n">
-        <v>4813.554709884365</v>
+        <v>4097.901859172714</v>
       </c>
       <c r="Q32" t="n">
-        <v>4966.704569922324</v>
+        <v>4797.550505169267</v>
       </c>
       <c r="R32" t="n">
         <v>5055.790700612876</v>
@@ -6733,19 +6733,19 @@
         <v>4791.379279529731</v>
       </c>
       <c r="U32" t="n">
-        <v>4532.272736625463</v>
+        <v>4532.272736625464</v>
       </c>
       <c r="V32" t="n">
-        <v>4169.655786559289</v>
+        <v>4169.65578655929</v>
       </c>
       <c r="W32" t="n">
         <v>3764.800331970323</v>
       </c>
       <c r="X32" t="n">
-        <v>3345.657868549633</v>
+        <v>3345.657868549634</v>
       </c>
       <c r="Y32" t="n">
-        <v>2937.371744849287</v>
+        <v>2937.371744849288</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>101.1158140122575</v>
       </c>
       <c r="I33" t="n">
-        <v>127.2413356760813</v>
+        <v>153.3050088365389</v>
       </c>
       <c r="J33" t="n">
-        <v>523.4900889429852</v>
+        <v>475.064461318168</v>
       </c>
       <c r="K33" t="n">
-        <v>646.0204495922845</v>
+        <v>597.5948219674675</v>
       </c>
       <c r="L33" t="n">
-        <v>810.7776406709592</v>
+        <v>762.3520130461422</v>
       </c>
       <c r="M33" t="n">
-        <v>1003.041511565112</v>
+        <v>954.6158839402952</v>
       </c>
       <c r="N33" t="n">
-        <v>1200.39403502283</v>
+        <v>1151.968407398013</v>
       </c>
       <c r="O33" t="n">
-        <v>1380.933038041613</v>
+        <v>1332.507410416797</v>
       </c>
       <c r="P33" t="n">
-        <v>1525.83150456385</v>
+        <v>1477.405876939034</v>
       </c>
       <c r="Q33" t="n">
-        <v>1622.692292143968</v>
+        <v>1574.266664519152</v>
       </c>
       <c r="R33" t="n">
         <v>1738.551911998599</v>
@@ -6858,25 +6858,25 @@
         <v>101.1158140122575</v>
       </c>
       <c r="J34" t="n">
-        <v>232.6717700129776</v>
+        <v>146.0920848482878</v>
       </c>
       <c r="K34" t="n">
-        <v>581.3400537321738</v>
+        <v>440.7627212829642</v>
       </c>
       <c r="L34" t="n">
-        <v>1094.129070546096</v>
+        <v>953.5517380968863</v>
       </c>
       <c r="M34" t="n">
-        <v>1653.333374659717</v>
+        <v>1512.756042210507</v>
       </c>
       <c r="N34" t="n">
-        <v>2192.941485645946</v>
+        <v>2052.364153196736</v>
       </c>
       <c r="O34" t="n">
-        <v>2702.528577093483</v>
+        <v>2561.951244644274</v>
       </c>
       <c r="P34" t="n">
-        <v>2818.205611558249</v>
+        <v>2986.398386422581</v>
       </c>
       <c r="Q34" t="n">
         <v>3039.667825881328</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1571.425049916108</v>
+        <v>734.3877307010093</v>
       </c>
       <c r="C35" t="n">
-        <v>1321.718810998811</v>
+        <v>734.3877307010093</v>
       </c>
       <c r="D35" t="n">
-        <v>1321.718810998811</v>
+        <v>734.3877307010093</v>
       </c>
       <c r="E35" t="n">
-        <v>887.9440661571057</v>
+        <v>734.3877307010093</v>
       </c>
       <c r="F35" t="n">
-        <v>460.0766365663134</v>
+        <v>734.3877307010093</v>
       </c>
       <c r="G35" t="n">
-        <v>60.12580242351726</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="H35" t="n">
         <v>60.12580242351726</v>
@@ -6937,22 +6937,22 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J35" t="n">
-        <v>670.0153478550027</v>
+        <v>670.0153478550028</v>
       </c>
       <c r="K35" t="n">
-        <v>879.6308838212445</v>
+        <v>850.4159591112997</v>
       </c>
       <c r="L35" t="n">
-        <v>1103.433794197928</v>
+        <v>1074.218869487984</v>
       </c>
       <c r="M35" t="n">
-        <v>1352.457654196216</v>
+        <v>1323.242729486272</v>
       </c>
       <c r="N35" t="n">
-        <v>1605.510980595707</v>
+        <v>1576.296055885762</v>
       </c>
       <c r="O35" t="n">
-        <v>1844.462060967232</v>
+        <v>1815.247136257288</v>
       </c>
       <c r="P35" t="n">
         <v>2048.4012797357</v>
@@ -6967,22 +6967,22 @@
         <v>3006.290121175863</v>
       </c>
       <c r="T35" t="n">
-        <v>3006.290121175863</v>
+        <v>2792.557124440474</v>
       </c>
       <c r="U35" t="n">
-        <v>2747.183578271595</v>
+        <v>2533.450581536206</v>
       </c>
       <c r="V35" t="n">
-        <v>2384.566628205421</v>
+        <v>2170.833631470032</v>
       </c>
       <c r="W35" t="n">
-        <v>1979.711173616455</v>
+        <v>1765.978176881066</v>
       </c>
       <c r="X35" t="n">
-        <v>1979.711173616455</v>
+        <v>1346.835713460376</v>
       </c>
       <c r="Y35" t="n">
-        <v>1571.425049916108</v>
+        <v>938.5495897600296</v>
       </c>
     </row>
     <row r="36">
@@ -7007,7 +7007,7 @@
         <v>178.9950767418714</v>
       </c>
       <c r="G36" t="n">
-        <v>94.38419878279969</v>
+        <v>94.38419878279967</v>
       </c>
       <c r="H36" t="n">
         <v>60.12580242351726</v>
@@ -7016,28 +7016,28 @@
         <v>112.3149972477987</v>
       </c>
       <c r="J36" t="n">
-        <v>508.5637505147025</v>
+        <v>184.0054255484902</v>
       </c>
       <c r="K36" t="n">
-        <v>631.0941111640019</v>
+        <v>306.5357861977897</v>
       </c>
       <c r="L36" t="n">
-        <v>795.8513022426765</v>
+        <v>471.2929772764644</v>
       </c>
       <c r="M36" t="n">
-        <v>988.1151731368294</v>
+        <v>663.5568481706173</v>
       </c>
       <c r="N36" t="n">
-        <v>1185.467696594547</v>
+        <v>860.9093716283355</v>
       </c>
       <c r="O36" t="n">
-        <v>1366.006699613331</v>
+        <v>1041.448374647119</v>
       </c>
       <c r="P36" t="n">
-        <v>1510.905166135568</v>
+        <v>1186.346841169356</v>
       </c>
       <c r="Q36" t="n">
-        <v>1650.449431024751</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R36" t="n">
         <v>1697.561900409858</v>
@@ -7074,16 +7074,16 @@
         <v>1113.244639915734</v>
       </c>
       <c r="C37" t="n">
-        <v>940.682928398959</v>
+        <v>940.6829283989587</v>
       </c>
       <c r="D37" t="n">
-        <v>774.8049356004817</v>
+        <v>774.8049356004813</v>
       </c>
       <c r="E37" t="n">
-        <v>605.0469318512189</v>
+        <v>605.0469318512187</v>
       </c>
       <c r="F37" t="n">
-        <v>428.3398778129751</v>
+        <v>428.3398778129749</v>
       </c>
       <c r="G37" t="n">
         <v>263.3976759832894</v>
@@ -7095,25 +7095,25 @@
         <v>60.12580242351726</v>
       </c>
       <c r="J37" t="n">
-        <v>105.1020732595475</v>
+        <v>105.1020732595476</v>
       </c>
       <c r="K37" t="n">
-        <v>231.5799348298918</v>
+        <v>399.772709694224</v>
       </c>
       <c r="L37" t="n">
-        <v>744.3689516438141</v>
+        <v>912.5617265081461</v>
       </c>
       <c r="M37" t="n">
-        <v>1303.573255757435</v>
+        <v>1471.766030621767</v>
       </c>
       <c r="N37" t="n">
-        <v>1843.181366743664</v>
+        <v>2011.374141607996</v>
       </c>
       <c r="O37" t="n">
-        <v>2352.768458191201</v>
+        <v>2520.961233055534</v>
       </c>
       <c r="P37" t="n">
-        <v>2777.215599969509</v>
+        <v>2945.408374833841</v>
       </c>
       <c r="Q37" t="n">
         <v>2998.677814292588</v>
@@ -7134,7 +7134,7 @@
         <v>2049.901088400909</v>
       </c>
       <c r="W37" t="n">
-        <v>1777.874683987201</v>
+        <v>1777.8746839872</v>
       </c>
       <c r="X37" t="n">
         <v>1532.482929320613</v>
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1976.280504505075</v>
+        <v>1307.013628832964</v>
       </c>
       <c r="C38" t="n">
-        <v>1604.07226036827</v>
+        <v>1170.297515526565</v>
       </c>
       <c r="D38" t="n">
-        <v>1168.162475542714</v>
+        <v>734.3877307010093</v>
       </c>
       <c r="E38" t="n">
         <v>734.3877307010093</v>
@@ -7174,52 +7174,52 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J38" t="n">
-        <v>234.7606604020848</v>
+        <v>670.0153478550028</v>
       </c>
       <c r="K38" t="n">
-        <v>978.8174653931108</v>
+        <v>850.4159591112997</v>
       </c>
       <c r="L38" t="n">
-        <v>1202.620375769794</v>
+        <v>1074.218869487984</v>
       </c>
       <c r="M38" t="n">
-        <v>1451.644235768083</v>
+        <v>1323.242729486272</v>
       </c>
       <c r="N38" t="n">
-        <v>1704.697562167573</v>
+        <v>1576.296055885762</v>
       </c>
       <c r="O38" t="n">
-        <v>1943.648642539098</v>
+        <v>1815.247136257288</v>
       </c>
       <c r="P38" t="n">
-        <v>2687.705447530124</v>
+        <v>2559.303941248314</v>
       </c>
       <c r="Q38" t="n">
-        <v>2917.20399048531</v>
+        <v>2748.049925732253</v>
       </c>
       <c r="R38" t="n">
         <v>3006.290121175863</v>
       </c>
       <c r="S38" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="T38" t="n">
-        <v>3006.290121175863</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="U38" t="n">
-        <v>2747.183578271595</v>
+        <v>2482.77215718845</v>
       </c>
       <c r="V38" t="n">
-        <v>2384.566628205421</v>
+        <v>2120.155207122277</v>
       </c>
       <c r="W38" t="n">
-        <v>2384.566628205421</v>
+        <v>1715.29975253331</v>
       </c>
       <c r="X38" t="n">
-        <v>2384.566628205421</v>
+        <v>1715.29975253331</v>
       </c>
       <c r="Y38" t="n">
-        <v>1976.280504505075</v>
+        <v>1307.013628832964</v>
       </c>
     </row>
     <row r="39">
@@ -7244,7 +7244,7 @@
         <v>178.9950767418714</v>
       </c>
       <c r="G39" t="n">
-        <v>94.38419878279969</v>
+        <v>94.38419878279967</v>
       </c>
       <c r="H39" t="n">
         <v>60.12580242351726</v>
@@ -7253,22 +7253,22 @@
         <v>112.3149972477987</v>
       </c>
       <c r="J39" t="n">
-        <v>184.0054255484901</v>
+        <v>434.0744497294276</v>
       </c>
       <c r="K39" t="n">
-        <v>306.5357861977895</v>
+        <v>556.6048103787271</v>
       </c>
       <c r="L39" t="n">
-        <v>471.2929772764642</v>
+        <v>721.3620014574018</v>
       </c>
       <c r="M39" t="n">
-        <v>663.5568481706169</v>
+        <v>913.6258723515548</v>
       </c>
       <c r="N39" t="n">
-        <v>860.9093716283351</v>
+        <v>1110.978395809273</v>
       </c>
       <c r="O39" t="n">
-        <v>1041.448374647118</v>
+        <v>1291.517398828056</v>
       </c>
       <c r="P39" t="n">
         <v>1436.415865350293</v>
@@ -7311,19 +7311,19 @@
         <v>1113.244639915734</v>
       </c>
       <c r="C40" t="n">
-        <v>940.682928398959</v>
+        <v>940.6829283989587</v>
       </c>
       <c r="D40" t="n">
-        <v>774.8049356004817</v>
+        <v>774.8049356004813</v>
       </c>
       <c r="E40" t="n">
-        <v>605.0469318512189</v>
+        <v>605.0469318512182</v>
       </c>
       <c r="F40" t="n">
-        <v>428.3398778129751</v>
+        <v>428.3398778129745</v>
       </c>
       <c r="G40" t="n">
-        <v>263.3976759832894</v>
+        <v>263.397675983289</v>
       </c>
       <c r="H40" t="n">
         <v>129.2663519946448</v>
@@ -7332,16 +7332,16 @@
         <v>60.12580242351726</v>
       </c>
       <c r="J40" t="n">
-        <v>157.6701056818313</v>
+        <v>191.6817584242374</v>
       </c>
       <c r="K40" t="n">
-        <v>231.5799348298918</v>
+        <v>540.3500421434336</v>
       </c>
       <c r="L40" t="n">
-        <v>744.3689516438141</v>
+        <v>1053.139058957356</v>
       </c>
       <c r="M40" t="n">
-        <v>1303.573255757435</v>
+        <v>1612.343363070977</v>
       </c>
       <c r="N40" t="n">
         <v>1843.181366743664</v>
@@ -7362,7 +7362,7 @@
         <v>2858.360327182776</v>
       </c>
       <c r="T40" t="n">
-        <v>2615.254193287674</v>
+        <v>2615.254193287673</v>
       </c>
       <c r="U40" t="n">
         <v>2336.856596530478</v>
@@ -7371,7 +7371,7 @@
         <v>2049.901088400909</v>
       </c>
       <c r="W40" t="n">
-        <v>1777.874683987201</v>
+        <v>1777.8746839872</v>
       </c>
       <c r="X40" t="n">
         <v>1532.482929320613</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1334.128894208446</v>
+        <v>1162.255160291802</v>
       </c>
       <c r="C41" t="n">
-        <v>895.9864213918689</v>
+        <v>1162.255160291802</v>
       </c>
       <c r="D41" t="n">
-        <v>460.0766365663134</v>
+        <v>1162.255160291802</v>
       </c>
       <c r="E41" t="n">
-        <v>460.0766365663134</v>
+        <v>1162.255160291802</v>
       </c>
       <c r="F41" t="n">
-        <v>460.0766365663134</v>
+        <v>734.3877307010093</v>
       </c>
       <c r="G41" t="n">
-        <v>60.12580242351726</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="H41" t="n">
         <v>60.12580242351726</v>
@@ -7411,19 +7411,19 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J41" t="n">
-        <v>234.7606604020848</v>
+        <v>234.7606604020849</v>
       </c>
       <c r="K41" t="n">
-        <v>415.1612716583817</v>
+        <v>415.1612716583818</v>
       </c>
       <c r="L41" t="n">
-        <v>1159.218076649408</v>
+        <v>1154.899635163785</v>
       </c>
       <c r="M41" t="n">
-        <v>1408.241936647696</v>
+        <v>1898.956440154811</v>
       </c>
       <c r="N41" t="n">
-        <v>1661.295263047186</v>
+        <v>2152.009766554301</v>
       </c>
       <c r="O41" t="n">
         <v>2390.960846925826</v>
@@ -7450,13 +7450,13 @@
         <v>2120.155207122277</v>
       </c>
       <c r="W41" t="n">
-        <v>2120.155207122277</v>
+        <v>1715.29975253331</v>
       </c>
       <c r="X41" t="n">
-        <v>1742.415017908792</v>
+        <v>1570.541283992148</v>
       </c>
       <c r="Y41" t="n">
-        <v>1334.128894208446</v>
+        <v>1162.255160291802</v>
       </c>
     </row>
     <row r="42">
@@ -7481,7 +7481,7 @@
         <v>178.9950767418714</v>
       </c>
       <c r="G42" t="n">
-        <v>94.38419878279969</v>
+        <v>94.38419878279967</v>
       </c>
       <c r="H42" t="n">
         <v>60.12580242351726</v>
@@ -7493,16 +7493,16 @@
         <v>508.5637505147025</v>
       </c>
       <c r="K42" t="n">
-        <v>631.0941111640019</v>
+        <v>631.094111164002</v>
       </c>
       <c r="L42" t="n">
-        <v>795.8513022426765</v>
+        <v>795.8513022426768</v>
       </c>
       <c r="M42" t="n">
-        <v>988.1151731368294</v>
+        <v>988.1151731368298</v>
       </c>
       <c r="N42" t="n">
-        <v>1185.467696594547</v>
+        <v>1185.467696594548</v>
       </c>
       <c r="O42" t="n">
         <v>1366.006699613331</v>
@@ -7548,34 +7548,34 @@
         <v>1113.244639915734</v>
       </c>
       <c r="C43" t="n">
-        <v>940.682928398959</v>
+        <v>940.6829283989587</v>
       </c>
       <c r="D43" t="n">
-        <v>774.8049356004817</v>
+        <v>774.8049356004813</v>
       </c>
       <c r="E43" t="n">
-        <v>605.0469318512189</v>
+        <v>605.0469318512187</v>
       </c>
       <c r="F43" t="n">
-        <v>428.3398778129751</v>
+        <v>428.3398778129747</v>
       </c>
       <c r="G43" t="n">
-        <v>263.3976759832894</v>
+        <v>263.397675983289</v>
       </c>
       <c r="H43" t="n">
-        <v>129.2663519946448</v>
+        <v>129.2663519946444</v>
       </c>
       <c r="I43" t="n">
         <v>60.12580242351726</v>
       </c>
       <c r="J43" t="n">
-        <v>105.1020732595475</v>
+        <v>105.1020732595476</v>
       </c>
       <c r="K43" t="n">
         <v>453.7703569787437</v>
       </c>
       <c r="L43" t="n">
-        <v>966.5593737926657</v>
+        <v>966.5593737926658</v>
       </c>
       <c r="M43" t="n">
         <v>1525.763677906287</v>
@@ -7608,7 +7608,7 @@
         <v>2049.901088400909</v>
       </c>
       <c r="W43" t="n">
-        <v>1777.874683987201</v>
+        <v>1777.8746839872</v>
       </c>
       <c r="X43" t="n">
         <v>1532.482929320613</v>
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2429.9401743743</v>
+        <v>1307.013628832964</v>
       </c>
       <c r="C44" t="n">
-        <v>1991.797701557723</v>
+        <v>868.871156016387</v>
       </c>
       <c r="D44" t="n">
-        <v>1555.887916732168</v>
+        <v>768.211641399918</v>
       </c>
       <c r="E44" t="n">
-        <v>1122.113171890463</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="F44" t="n">
-        <v>694.2457422996708</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="G44" t="n">
         <v>334.4368965582132</v>
@@ -7648,25 +7648,25 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J44" t="n">
-        <v>234.7606604020848</v>
+        <v>670.0153478550028</v>
       </c>
       <c r="K44" t="n">
-        <v>415.1612716583817</v>
+        <v>1055.166148310338</v>
       </c>
       <c r="L44" t="n">
-        <v>638.9641820350653</v>
+        <v>1278.969058687022</v>
       </c>
       <c r="M44" t="n">
-        <v>1383.020987026091</v>
+        <v>1527.99291868531</v>
       </c>
       <c r="N44" t="n">
-        <v>1636.074313425582</v>
+        <v>1781.0462450848</v>
       </c>
       <c r="O44" t="n">
-        <v>2013.616125720289</v>
+        <v>2019.997325456326</v>
       </c>
       <c r="P44" t="n">
-        <v>2217.555344488757</v>
+        <v>2764.054130447352</v>
       </c>
       <c r="Q44" t="n">
         <v>2917.20399048531</v>
@@ -7675,25 +7675,25 @@
         <v>3006.290121175863</v>
       </c>
       <c r="S44" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="T44" t="n">
-        <v>2792.557124440474</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="U44" t="n">
-        <v>2792.557124440474</v>
+        <v>2482.77215718845</v>
       </c>
       <c r="V44" t="n">
-        <v>2429.9401743743</v>
+        <v>2120.155207122277</v>
       </c>
       <c r="W44" t="n">
-        <v>2429.9401743743</v>
+        <v>1715.29975253331</v>
       </c>
       <c r="X44" t="n">
-        <v>2429.9401743743</v>
+        <v>1715.29975253331</v>
       </c>
       <c r="Y44" t="n">
-        <v>2429.9401743743</v>
+        <v>1307.013628832964</v>
       </c>
     </row>
     <row r="45">
@@ -7718,7 +7718,7 @@
         <v>178.9950767418714</v>
       </c>
       <c r="G45" t="n">
-        <v>94.38419878279969</v>
+        <v>94.38419878279967</v>
       </c>
       <c r="H45" t="n">
         <v>60.12580242351726</v>
@@ -7727,16 +7727,16 @@
         <v>112.3149972477987</v>
       </c>
       <c r="J45" t="n">
-        <v>184.0054255484901</v>
+        <v>434.0744497294276</v>
       </c>
       <c r="K45" t="n">
-        <v>556.6048103787274</v>
+        <v>556.6048103787271</v>
       </c>
       <c r="L45" t="n">
-        <v>721.362001457402</v>
+        <v>721.3620014574018</v>
       </c>
       <c r="M45" t="n">
-        <v>913.6258723515549</v>
+        <v>913.6258723515548</v>
       </c>
       <c r="N45" t="n">
         <v>1110.978395809273</v>
@@ -7785,7 +7785,7 @@
         <v>1113.244639915734</v>
       </c>
       <c r="C46" t="n">
-        <v>940.6829283989593</v>
+        <v>940.682928398959</v>
       </c>
       <c r="D46" t="n">
         <v>774.8049356004817</v>
@@ -7806,25 +7806,25 @@
         <v>60.12580242351726</v>
       </c>
       <c r="J46" t="n">
-        <v>191.6817584242374</v>
+        <v>105.1020732595476</v>
       </c>
       <c r="K46" t="n">
-        <v>540.3500421434335</v>
+        <v>453.7703569787437</v>
       </c>
       <c r="L46" t="n">
-        <v>744.3689516438141</v>
+        <v>966.5593737926658</v>
       </c>
       <c r="M46" t="n">
-        <v>1303.573255757435</v>
+        <v>1525.763677906287</v>
       </c>
       <c r="N46" t="n">
-        <v>1843.181366743664</v>
+        <v>2065.371788892516</v>
       </c>
       <c r="O46" t="n">
-        <v>2352.768458191201</v>
+        <v>2574.958880340054</v>
       </c>
       <c r="P46" t="n">
-        <v>2777.215599969509</v>
+        <v>2945.408374833841</v>
       </c>
       <c r="Q46" t="n">
         <v>2998.677814292588</v>
@@ -7839,7 +7839,7 @@
         <v>2615.254193287674</v>
       </c>
       <c r="U46" t="n">
-        <v>2336.856596530479</v>
+        <v>2336.856596530478</v>
       </c>
       <c r="V46" t="n">
         <v>2049.901088400909</v>
@@ -7987,19 +7987,19 @@
         <v>41.31500304752735</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="N2" t="n">
-        <v>41.31500304752736</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="O2" t="n">
-        <v>41.31500304752734</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -8072,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="P3" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="P3" t="n">
-        <v>39.64570999510202</v>
       </c>
       <c r="Q3" t="n">
         <v>41.31500304752734</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="N4" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>39.64570999510201</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>41.31500304752734</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8230,10 +8230,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>41.31500304752734</v>
@@ -8291,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K6" t="n">
-        <v>41.31500304752735</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="O6" t="n">
+      <c r="R6" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8376,25 +8376,25 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>39.64570999510201</v>
-      </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="K8" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="M8" t="n">
-        <v>41.31500304752736</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8537,25 +8537,25 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>41.31500304752735</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="P9" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="R9" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8613,22 +8613,22 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="L10" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>41.31500304752734</v>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>94.45059665996098</v>
       </c>
       <c r="K11" t="n">
-        <v>569.3496906411406</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8704,13 +8704,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>510.2078026459608</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>545.5733194167249</v>
       </c>
       <c r="Q11" t="n">
-        <v>112.4853985053373</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>69.44156613083123</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>252.5949739201387</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,16 +8847,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>222.9907144309251</v>
       </c>
       <c r="L13" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>152.236121078153</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -8868,7 +8868,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>29.51002495954037</v>
+        <v>569.3496906411405</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8944,13 +8944,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>545.5733194167246</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>77.11988173457303</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>252.5949739201388</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>370.9513154295732</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,16 +9084,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>222.9907144309251</v>
       </c>
       <c r="L16" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>152.236121078153</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -9105,7 +9105,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9181,7 +9181,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>29.51002495954026</v>
+        <v>29.51002495953935</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9242,7 +9242,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>252.5949739201388</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>43.11462354451032</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9327,7 +9327,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>110.5452267216355</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645587</v>
@@ -9336,7 +9336,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>112.0193352648889</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
         <v>351.0170646165068</v>
@@ -9400,16 +9400,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>469.1612244069314</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>500.0332777704423</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>81.49572290485048</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>252.5949739201388</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>397.2782580158942</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,16 +9558,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>110.5452267216355</v>
       </c>
       <c r="M22" t="n">
-        <v>239.6903485172336</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -9652,10 +9652,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>378.8538644107512</v>
       </c>
       <c r="P23" t="n">
-        <v>225.4500343734694</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>397.2782580158923</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>252.594973920139</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>222.990714430925</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
@@ -9807,7 +9807,7 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
-        <v>392.1829857304292</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
@@ -9880,7 +9880,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>378.8538644107523</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>378.8538644107493</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458549</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>278.9219165064603</v>
+        <v>397.2782580158939</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,16 +10032,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>110.5452267216355</v>
       </c>
       <c r="M28" t="n">
-        <v>409.5820402993875</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -10053,7 +10053,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10117,19 +10117,19 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1037.884129318185</v>
+        <v>551.3062599605112</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>350.098771888182</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>43.1146235445101</v>
       </c>
       <c r="R30" t="n">
-        <v>69.44156613083146</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,16 +10269,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>53.09902264877144</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645587</v>
+        <v>152.2361210781526</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -10351,10 +10351,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>671.2026652600337</v>
       </c>
       <c r="L32" t="n">
-        <v>551.3062599605125</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>252.594973920139</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>69.44156613083146</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,10 +10506,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>222.990714430925</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
@@ -10524,10 +10524,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>39.1280673301012</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>29.51002495954037</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10603,7 +10603,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>29.51002495953935</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10664,7 +10664,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>43.11462354451032</v>
+        <v>252.5949739201387</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10746,7 +10746,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>53.09902264877149</v>
+        <v>222.9907144309251</v>
       </c>
       <c r="L37" t="n">
         <v>422.4342240080415</v>
@@ -10764,7 +10764,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>569.3496906411406</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10840,13 +10840,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>545.5733194167251</v>
+        <v>545.5733194167246</v>
       </c>
       <c r="Q38" t="n">
-        <v>77.11988173457303</v>
+        <v>35.95568125856698</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>252.5949739201388</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>252.5949739201392</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -10980,10 +10980,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>53.09902264877151</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
@@ -10992,7 +10992,7 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N40" t="n">
-        <v>446.7260637956006</v>
+        <v>134.8370665091945</v>
       </c>
       <c r="O40" t="n">
         <v>423.9083325512944</v>
@@ -11065,16 +11065,16 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>525.5089844589318</v>
+        <v>521.1469223522416</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>500.0332777704423</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>495.6712156637527</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>43.11462354451032</v>
+        <v>43.11462354450987</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11232,7 +11232,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>199.4735627039695</v>
+        <v>199.4735627039686</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>206.8183729283214</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>500.0332777704423</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>139.9906383062444</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>545.5733194167249</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>252.5949739201388</v>
       </c>
       <c r="K45" t="n">
-        <v>252.5949739201392</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11454,13 +11454,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>110.5452267216358</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645587</v>
@@ -11472,10 +11472,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>296.4739865513352</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>78.72964374168083</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H11" t="n">
-        <v>271.5679831933489</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>50.17164010427808</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>211.5956667680352</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>195.0892867723151</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>270.0879744159066</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>37.22027257237608</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.17164010427808</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>211.5956667680352</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>50.17164010427808</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>340.1936641519974</v>
       </c>
       <c r="W17" t="n">
-        <v>78.08415134851339</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23971,7 +23971,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>211.5956667680352</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>351.2832603385373</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>110.1298079454343</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>219.9163343116287</v>
       </c>
       <c r="C35" t="n">
-        <v>186.5518715602864</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>271.5679831933489</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>50.17164010427808</v>
+        <v>50.17164010427805</v>
       </c>
       <c r="T35" t="n">
-        <v>211.5956667680352</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25393,13 +25393,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>65.27488639297422</v>
+        <v>298.4120959150762</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>50.17164010427808</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>211.5956667680352</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25453,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -25630,22 +25630,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>271.5679831933489</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25690,10 +25690,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>40.98825146513286</v>
+        <v>271.6401549307322</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25870,16 +25870,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>331.8977675069956</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>39.74056851732507</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>50.17164010427808</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>379876.3721999745</v>
+        <v>379876.3721999746</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>379876.3721999746</v>
+        <v>379876.3721999745</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>570935.5666676079</v>
+        <v>570935.5666676078</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>570935.5666676079</v>
+        <v>570935.5666676078</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>570935.5666676079</v>
+        <v>570935.5666676078</v>
       </c>
     </row>
     <row r="13">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>482532.5879013676</v>
+        <v>482532.5879013677</v>
       </c>
       <c r="C2" t="n">
-        <v>482532.5879013676</v>
+        <v>482532.5879013677</v>
       </c>
       <c r="D2" t="n">
-        <v>482532.5879013675</v>
+        <v>482532.5879013677</v>
       </c>
       <c r="E2" t="n">
         <v>340081.7877915238</v>
@@ -26328,7 +26328,7 @@
         <v>340081.7877915239</v>
       </c>
       <c r="G2" t="n">
-        <v>340081.7877915238</v>
+        <v>340081.7877915239</v>
       </c>
       <c r="H2" t="n">
         <v>340081.7877915238</v>
@@ -26337,13 +26337,13 @@
         <v>482532.5879013676</v>
       </c>
       <c r="J2" t="n">
-        <v>482532.5879013676</v>
+        <v>482532.5879013675</v>
       </c>
       <c r="K2" t="n">
-        <v>482532.5879013677</v>
+        <v>482532.5879013675</v>
       </c>
       <c r="L2" t="n">
-        <v>482532.5879013677</v>
+        <v>482532.5879013675</v>
       </c>
       <c r="M2" t="n">
         <v>340081.7877915239</v>
@@ -26352,7 +26352,7 @@
         <v>340081.7877915238</v>
       </c>
       <c r="O2" t="n">
-        <v>340081.7877915239</v>
+        <v>340081.7877915238</v>
       </c>
       <c r="P2" t="n">
         <v>340081.7877915238</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13845.60776629648</v>
+        <v>13845.60776629651</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>498352.8259836707</v>
+        <v>498352.8259836708</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>136251.3108961175</v>
       </c>
       <c r="J3" t="n">
-        <v>10809.82265736726</v>
+        <v>10809.82265736714</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>301049.4928748383</v>
       </c>
       <c r="D4" t="n">
-        <v>301049.4928748382</v>
+        <v>301049.4928748383</v>
       </c>
       <c r="E4" t="n">
-        <v>59255.66844834959</v>
+        <v>59255.66844834956</v>
       </c>
       <c r="F4" t="n">
-        <v>59255.66844834959</v>
+        <v>59255.66844834958</v>
       </c>
       <c r="G4" t="n">
-        <v>59255.66844834959</v>
+        <v>59255.66844834956</v>
       </c>
       <c r="H4" t="n">
-        <v>59255.6684483496</v>
+        <v>59255.66844834956</v>
       </c>
       <c r="I4" t="n">
-        <v>116020.2346928486</v>
+        <v>116020.2346928485</v>
       </c>
       <c r="J4" t="n">
-        <v>116020.2346928486</v>
+        <v>116020.2346928485</v>
       </c>
       <c r="K4" t="n">
-        <v>116020.2346928486</v>
+        <v>116020.2346928485</v>
       </c>
       <c r="L4" t="n">
-        <v>116020.2346928486</v>
+        <v>116020.2346928485</v>
       </c>
       <c r="M4" t="n">
-        <v>59255.6684483496</v>
+        <v>59255.66844834956</v>
       </c>
       <c r="N4" t="n">
-        <v>59255.6684483496</v>
+        <v>59255.66844834956</v>
       </c>
       <c r="O4" t="n">
-        <v>59255.6684483496</v>
+        <v>59255.66844834956</v>
       </c>
       <c r="P4" t="n">
-        <v>59255.6684483496</v>
+        <v>59255.66844834956</v>
       </c>
     </row>
     <row r="5">
@@ -26493,10 +26493,10 @@
         <v>84616.25585716027</v>
       </c>
       <c r="J5" t="n">
-        <v>84616.25585716027</v>
+        <v>84616.25585716026</v>
       </c>
       <c r="K5" t="n">
-        <v>84616.25585716027</v>
+        <v>84616.25585716026</v>
       </c>
       <c r="L5" t="n">
         <v>84616.25585716027</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>131497.9350749431</v>
+        <v>131497.9350749433</v>
       </c>
       <c r="C6" t="n">
         <v>145343.5428412397</v>
       </c>
       <c r="D6" t="n">
-        <v>145343.5428412395</v>
+        <v>145343.5428412398</v>
       </c>
       <c r="E6" t="n">
-        <v>-270990.5536902141</v>
+        <v>-271386.250357186</v>
       </c>
       <c r="F6" t="n">
-        <v>227362.2722934567</v>
+        <v>226966.5756264849</v>
       </c>
       <c r="G6" t="n">
-        <v>227362.2722934565</v>
+        <v>226966.5756264849</v>
       </c>
       <c r="H6" t="n">
-        <v>227362.2722934566</v>
+        <v>226966.5756264848</v>
       </c>
       <c r="I6" t="n">
-        <v>145644.7864552413</v>
+        <v>145644.7864552412</v>
       </c>
       <c r="J6" t="n">
-        <v>271086.2746939915</v>
+        <v>271086.2746939916</v>
       </c>
       <c r="K6" t="n">
-        <v>281896.0973513589</v>
+        <v>281896.0973513587</v>
       </c>
       <c r="L6" t="n">
-        <v>281896.0973513589</v>
+        <v>281896.0973513587</v>
       </c>
       <c r="M6" t="n">
-        <v>178049.1910730406</v>
+        <v>177653.4944060689</v>
       </c>
       <c r="N6" t="n">
-        <v>227362.2722934565</v>
+        <v>226966.5756264848</v>
       </c>
       <c r="O6" t="n">
-        <v>227362.2722934567</v>
+        <v>226966.5756264848</v>
       </c>
       <c r="P6" t="n">
-        <v>227362.2722934566</v>
+        <v>226966.5756264848</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>356.341156323145</v>
+        <v>356.3411563231451</v>
       </c>
       <c r="F3" t="n">
-        <v>356.341156323145</v>
+        <v>356.3411563231451</v>
       </c>
       <c r="G3" t="n">
-        <v>356.341156323145</v>
+        <v>356.3411563231451</v>
       </c>
       <c r="H3" t="n">
-        <v>356.341156323145</v>
+        <v>356.3411563231451</v>
       </c>
       <c r="I3" t="n">
-        <v>356.341156323145</v>
+        <v>356.3411563231451</v>
       </c>
       <c r="J3" t="n">
-        <v>356.341156323145</v>
+        <v>356.3411563231451</v>
       </c>
       <c r="K3" t="n">
-        <v>356.341156323145</v>
+        <v>356.3411563231451</v>
       </c>
       <c r="L3" t="n">
-        <v>356.341156323145</v>
+        <v>356.3411563231451</v>
       </c>
       <c r="M3" t="n">
-        <v>356.341156323145</v>
+        <v>356.3411563231451</v>
       </c>
       <c r="N3" t="n">
-        <v>356.341156323145</v>
+        <v>356.3411563231451</v>
       </c>
       <c r="O3" t="n">
-        <v>356.341156323145</v>
+        <v>356.3411563231451</v>
       </c>
       <c r="P3" t="n">
-        <v>356.341156323145</v>
+        <v>356.3411563231451</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>356.341156323145</v>
+        <v>356.3411563231451</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>512.3751448592534</v>
       </c>
       <c r="J4" t="n">
-        <v>41.3150030475274</v>
+        <v>41.31500304752694</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27466,16 +27466,16 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E3" t="n">
-        <v>93.17921052631581</v>
+        <v>56.78895584205372</v>
       </c>
       <c r="F3" t="n">
-        <v>46.15974531573791</v>
+        <v>41.23499695247265</v>
       </c>
       <c r="G3" t="n">
-        <v>43.21623578895061</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H3" t="n">
-        <v>0.003292614422299778</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>21.5058801285734</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T3" t="n">
         <v>128.8768572327044</v>
@@ -27517,10 +27517,10 @@
         <v>174.5731815300314</v>
       </c>
       <c r="V3" t="n">
-        <v>197.1263427586206</v>
+        <v>155.8113397110933</v>
       </c>
       <c r="W3" t="n">
-        <v>183.4695267241379</v>
+        <v>142.1545236766106</v>
       </c>
       <c r="X3" t="n">
         <v>153.3187614035088</v>
@@ -27545,16 +27545,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>131.670169027508</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>133.624980450334</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>97.18814951900188</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>116.333951967456</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>202.1056489098019</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>234.3336676918984</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>268.8993414456936</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>201.6228340723943</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -27703,7 +27703,7 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E6" t="n">
-        <v>93.17921052631581</v>
+        <v>56.78895584205372</v>
       </c>
       <c r="F6" t="n">
         <v>82.55</v>
@@ -27712,7 +27712,7 @@
         <v>43.21623578895061</v>
       </c>
       <c r="H6" t="n">
-        <v>0.003292614422299778</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>21.5058801285734</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T6" t="n">
         <v>128.8768572327044</v>
@@ -27757,13 +27757,13 @@
         <v>197.1263427586206</v>
       </c>
       <c r="W6" t="n">
-        <v>183.4695267241379</v>
+        <v>142.1545236766106</v>
       </c>
       <c r="X6" t="n">
-        <v>153.3187614035088</v>
+        <v>112.0037583559815</v>
       </c>
       <c r="Y6" t="n">
-        <v>88.83066674430933</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="7">
@@ -27776,22 +27776,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>129.52109135408</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>122.9042098229652</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>133.624980450334</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>122.6203591769033</v>
       </c>
       <c r="H7" t="n">
-        <v>123.316540963949</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27824,10 +27824,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>116.333951967456</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>228.234040354749</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -27934,22 +27934,22 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C9" t="n">
-        <v>69.00164186746204</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D9" t="n">
         <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
-        <v>93.17921052631581</v>
+        <v>51.86420747878847</v>
       </c>
       <c r="F9" t="n">
-        <v>82.55</v>
+        <v>41.23499695247265</v>
       </c>
       <c r="G9" t="n">
         <v>84.53123883647795</v>
       </c>
       <c r="H9" t="n">
-        <v>0.003292614422299778</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27982,16 +27982,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>21.5058801285734</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T9" t="n">
-        <v>87.56185418517705</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U9" t="n">
-        <v>174.5731815300314</v>
+        <v>138.1829268457693</v>
       </c>
       <c r="V9" t="n">
-        <v>197.1263427586206</v>
+        <v>155.8113397110933</v>
       </c>
       <c r="W9" t="n">
         <v>183.4695267241379</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>148.5854294842699</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -28019,10 +28019,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>152.8738121091899</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>133.624980450334</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -28061,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>116.333951967456</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>228.234040354749</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -28073,13 +28073,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>227.991137322044</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>201.6228340723943</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>183.8304709315055</v>
       </c>
     </row>
     <row r="11">
@@ -31755,46 +31755,46 @@
         <v>1.432527261600582</v>
       </c>
       <c r="H11" t="n">
-        <v>14.67086981786696</v>
+        <v>14.67086981786697</v>
       </c>
       <c r="I11" t="n">
-        <v>55.22750725285648</v>
+        <v>55.2275072528565</v>
       </c>
       <c r="J11" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K11" t="n">
-        <v>182.2228396528251</v>
+        <v>182.2228396528252</v>
       </c>
       <c r="L11" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350341</v>
       </c>
       <c r="M11" t="n">
-        <v>251.5392525235233</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N11" t="n">
-        <v>255.609420605546</v>
+        <v>255.6094206055461</v>
       </c>
       <c r="O11" t="n">
-        <v>241.3647276480052</v>
+        <v>241.3647276480053</v>
       </c>
       <c r="P11" t="n">
-        <v>205.9992108772408</v>
+        <v>205.9992108772409</v>
       </c>
       <c r="Q11" t="n">
-        <v>154.6968283211699</v>
+        <v>154.69682832117</v>
       </c>
       <c r="R11" t="n">
-        <v>89.98599059651762</v>
+        <v>89.98599059651767</v>
       </c>
       <c r="S11" t="n">
-        <v>32.64371497372328</v>
+        <v>32.64371497372331</v>
       </c>
       <c r="T11" t="n">
-        <v>6.27088808765655</v>
+        <v>6.270888087656552</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1146021809280465</v>
+        <v>0.1146021809280466</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7664696569969534</v>
+        <v>0.7664696569969537</v>
       </c>
       <c r="H12" t="n">
-        <v>7.402483266260051</v>
+        <v>7.402483266260054</v>
       </c>
       <c r="I12" t="n">
-        <v>26.38941582204423</v>
+        <v>26.38941582204424</v>
       </c>
       <c r="J12" t="n">
-        <v>72.41457404110251</v>
+        <v>72.41457404110255</v>
       </c>
       <c r="K12" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598985</v>
       </c>
       <c r="L12" t="n">
         <v>166.4214051299745</v>
       </c>
       <c r="M12" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961141</v>
       </c>
       <c r="N12" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906244</v>
       </c>
       <c r="O12" t="n">
-        <v>182.3626293119023</v>
+        <v>182.3626293119024</v>
       </c>
       <c r="P12" t="n">
-        <v>146.3620873961989</v>
+        <v>146.362087396199</v>
       </c>
       <c r="Q12" t="n">
-        <v>97.83917937385672</v>
+        <v>97.83917937385677</v>
       </c>
       <c r="R12" t="n">
-        <v>47.58835291424946</v>
+        <v>47.58835291424948</v>
       </c>
       <c r="S12" t="n">
         <v>14.23683770781621</v>
       </c>
       <c r="T12" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141229</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05042563532874695</v>
+        <v>0.05042563532874697</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6425824130417367</v>
+        <v>0.642582413041737</v>
       </c>
       <c r="H13" t="n">
-        <v>5.713141817771081</v>
+        <v>5.713141817771085</v>
       </c>
       <c r="I13" t="n">
-        <v>19.32420565765514</v>
+        <v>19.32420565765515</v>
       </c>
       <c r="J13" t="n">
-        <v>45.43057660205078</v>
+        <v>45.43057660205081</v>
       </c>
       <c r="K13" t="n">
-        <v>74.65639307884904</v>
+        <v>74.65639307884906</v>
       </c>
       <c r="L13" t="n">
-        <v>95.53447984440513</v>
+        <v>95.53447984440518</v>
       </c>
       <c r="M13" t="n">
-        <v>100.7277140734424</v>
+        <v>100.7277140734425</v>
       </c>
       <c r="N13" t="n">
-        <v>98.33263417028692</v>
+        <v>98.33263417028698</v>
       </c>
       <c r="O13" t="n">
-        <v>90.82610325429933</v>
+        <v>90.82610325429937</v>
       </c>
       <c r="P13" t="n">
-        <v>77.71742202824784</v>
+        <v>77.71742202824788</v>
       </c>
       <c r="Q13" t="n">
-        <v>53.80751460479489</v>
+        <v>53.80751460479491</v>
       </c>
       <c r="R13" t="n">
-        <v>28.89284195367663</v>
+        <v>28.89284195367664</v>
       </c>
       <c r="S13" t="n">
-        <v>11.19845896182735</v>
+        <v>11.19845896182736</v>
       </c>
       <c r="T13" t="n">
-        <v>2.745579401178329</v>
+        <v>2.74557940117833</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03504994980227659</v>
+        <v>0.03504994980227661</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,46 +31992,46 @@
         <v>1.432527261600582</v>
       </c>
       <c r="H14" t="n">
-        <v>14.67086981786696</v>
+        <v>14.67086981786697</v>
       </c>
       <c r="I14" t="n">
-        <v>55.22750725285648</v>
+        <v>55.2275072528565</v>
       </c>
       <c r="J14" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K14" t="n">
-        <v>182.2228396528251</v>
+        <v>182.2228396528252</v>
       </c>
       <c r="L14" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350341</v>
       </c>
       <c r="M14" t="n">
-        <v>251.5392525235233</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N14" t="n">
-        <v>255.609420605546</v>
+        <v>255.6094206055461</v>
       </c>
       <c r="O14" t="n">
-        <v>241.3647276480052</v>
+        <v>241.3647276480053</v>
       </c>
       <c r="P14" t="n">
-        <v>205.9992108772408</v>
+        <v>205.9992108772409</v>
       </c>
       <c r="Q14" t="n">
-        <v>154.6968283211699</v>
+        <v>154.69682832117</v>
       </c>
       <c r="R14" t="n">
-        <v>89.98599059651762</v>
+        <v>89.98599059651767</v>
       </c>
       <c r="S14" t="n">
-        <v>32.64371497372328</v>
+        <v>32.64371497372331</v>
       </c>
       <c r="T14" t="n">
-        <v>6.27088808765655</v>
+        <v>6.270888087656552</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1146021809280465</v>
+        <v>0.1146021809280466</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7664696569969534</v>
+        <v>0.7664696569969537</v>
       </c>
       <c r="H15" t="n">
-        <v>7.402483266260051</v>
+        <v>7.402483266260054</v>
       </c>
       <c r="I15" t="n">
-        <v>26.38941582204423</v>
+        <v>26.38941582204424</v>
       </c>
       <c r="J15" t="n">
-        <v>72.41457404110251</v>
+        <v>72.41457404110255</v>
       </c>
       <c r="K15" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598985</v>
       </c>
       <c r="L15" t="n">
         <v>166.4214051299745</v>
       </c>
       <c r="M15" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961141</v>
       </c>
       <c r="N15" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906244</v>
       </c>
       <c r="O15" t="n">
-        <v>182.3626293119023</v>
+        <v>182.3626293119024</v>
       </c>
       <c r="P15" t="n">
-        <v>146.3620873961989</v>
+        <v>146.362087396199</v>
       </c>
       <c r="Q15" t="n">
-        <v>97.83917937385672</v>
+        <v>97.83917937385677</v>
       </c>
       <c r="R15" t="n">
-        <v>47.58835291424946</v>
+        <v>47.58835291424948</v>
       </c>
       <c r="S15" t="n">
         <v>14.23683770781621</v>
       </c>
       <c r="T15" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141229</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05042563532874695</v>
+        <v>0.05042563532874697</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6425824130417367</v>
+        <v>0.642582413041737</v>
       </c>
       <c r="H16" t="n">
-        <v>5.713141817771081</v>
+        <v>5.713141817771085</v>
       </c>
       <c r="I16" t="n">
-        <v>19.32420565765514</v>
+        <v>19.32420565765515</v>
       </c>
       <c r="J16" t="n">
-        <v>45.43057660205078</v>
+        <v>45.43057660205081</v>
       </c>
       <c r="K16" t="n">
-        <v>74.65639307884904</v>
+        <v>74.65639307884906</v>
       </c>
       <c r="L16" t="n">
-        <v>95.53447984440513</v>
+        <v>95.53447984440518</v>
       </c>
       <c r="M16" t="n">
-        <v>100.7277140734424</v>
+        <v>100.7277140734425</v>
       </c>
       <c r="N16" t="n">
-        <v>98.33263417028692</v>
+        <v>98.33263417028698</v>
       </c>
       <c r="O16" t="n">
-        <v>90.82610325429933</v>
+        <v>90.82610325429937</v>
       </c>
       <c r="P16" t="n">
-        <v>77.71742202824784</v>
+        <v>77.71742202824788</v>
       </c>
       <c r="Q16" t="n">
-        <v>53.80751460479489</v>
+        <v>53.80751460479491</v>
       </c>
       <c r="R16" t="n">
-        <v>28.89284195367663</v>
+        <v>28.89284195367664</v>
       </c>
       <c r="S16" t="n">
-        <v>11.19845896182735</v>
+        <v>11.19845896182736</v>
       </c>
       <c r="T16" t="n">
-        <v>2.745579401178329</v>
+        <v>2.74557940117833</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03504994980227659</v>
+        <v>0.03504994980227661</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,46 +32229,46 @@
         <v>1.432527261600582</v>
       </c>
       <c r="H17" t="n">
-        <v>14.67086981786696</v>
+        <v>14.67086981786697</v>
       </c>
       <c r="I17" t="n">
-        <v>55.22750725285648</v>
+        <v>55.2275072528565</v>
       </c>
       <c r="J17" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K17" t="n">
-        <v>182.2228396528251</v>
+        <v>182.2228396528252</v>
       </c>
       <c r="L17" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350341</v>
       </c>
       <c r="M17" t="n">
-        <v>251.5392525235233</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N17" t="n">
-        <v>255.609420605546</v>
+        <v>255.6094206055461</v>
       </c>
       <c r="O17" t="n">
-        <v>241.3647276480052</v>
+        <v>241.3647276480053</v>
       </c>
       <c r="P17" t="n">
-        <v>205.9992108772408</v>
+        <v>205.9992108772409</v>
       </c>
       <c r="Q17" t="n">
-        <v>154.6968283211699</v>
+        <v>154.69682832117</v>
       </c>
       <c r="R17" t="n">
-        <v>89.98599059651762</v>
+        <v>89.98599059651767</v>
       </c>
       <c r="S17" t="n">
-        <v>32.64371497372328</v>
+        <v>32.64371497372331</v>
       </c>
       <c r="T17" t="n">
-        <v>6.27088808765655</v>
+        <v>6.270888087656552</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1146021809280465</v>
+        <v>0.1146021809280466</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7664696569969534</v>
+        <v>0.7664696569969537</v>
       </c>
       <c r="H18" t="n">
-        <v>7.402483266260051</v>
+        <v>7.402483266260054</v>
       </c>
       <c r="I18" t="n">
-        <v>26.38941582204423</v>
+        <v>26.38941582204424</v>
       </c>
       <c r="J18" t="n">
-        <v>72.41457404110251</v>
+        <v>72.41457404110255</v>
       </c>
       <c r="K18" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598985</v>
       </c>
       <c r="L18" t="n">
         <v>166.4214051299745</v>
       </c>
       <c r="M18" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961141</v>
       </c>
       <c r="N18" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906244</v>
       </c>
       <c r="O18" t="n">
-        <v>182.3626293119023</v>
+        <v>182.3626293119024</v>
       </c>
       <c r="P18" t="n">
-        <v>146.3620873961989</v>
+        <v>146.362087396199</v>
       </c>
       <c r="Q18" t="n">
-        <v>97.83917937385672</v>
+        <v>97.83917937385677</v>
       </c>
       <c r="R18" t="n">
-        <v>47.58835291424946</v>
+        <v>47.58835291424948</v>
       </c>
       <c r="S18" t="n">
         <v>14.23683770781621</v>
       </c>
       <c r="T18" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141229</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05042563532874695</v>
+        <v>0.05042563532874697</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6425824130417367</v>
+        <v>0.642582413041737</v>
       </c>
       <c r="H19" t="n">
-        <v>5.713141817771081</v>
+        <v>5.713141817771085</v>
       </c>
       <c r="I19" t="n">
-        <v>19.32420565765514</v>
+        <v>19.32420565765515</v>
       </c>
       <c r="J19" t="n">
-        <v>45.43057660205078</v>
+        <v>45.43057660205081</v>
       </c>
       <c r="K19" t="n">
-        <v>74.65639307884904</v>
+        <v>74.65639307884906</v>
       </c>
       <c r="L19" t="n">
-        <v>95.53447984440513</v>
+        <v>95.53447984440518</v>
       </c>
       <c r="M19" t="n">
-        <v>100.7277140734424</v>
+        <v>100.7277140734425</v>
       </c>
       <c r="N19" t="n">
-        <v>98.33263417028692</v>
+        <v>98.33263417028698</v>
       </c>
       <c r="O19" t="n">
-        <v>90.82610325429933</v>
+        <v>90.82610325429937</v>
       </c>
       <c r="P19" t="n">
-        <v>77.71742202824784</v>
+        <v>77.71742202824788</v>
       </c>
       <c r="Q19" t="n">
-        <v>53.80751460479489</v>
+        <v>53.80751460479491</v>
       </c>
       <c r="R19" t="n">
-        <v>28.89284195367663</v>
+        <v>28.89284195367664</v>
       </c>
       <c r="S19" t="n">
-        <v>11.19845896182735</v>
+        <v>11.19845896182736</v>
       </c>
       <c r="T19" t="n">
-        <v>2.745579401178329</v>
+        <v>2.74557940117833</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03504994980227659</v>
+        <v>0.03504994980227661</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,46 +32466,46 @@
         <v>1.432527261600582</v>
       </c>
       <c r="H20" t="n">
-        <v>14.67086981786696</v>
+        <v>14.67086981786697</v>
       </c>
       <c r="I20" t="n">
-        <v>55.22750725285648</v>
+        <v>55.2275072528565</v>
       </c>
       <c r="J20" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K20" t="n">
-        <v>182.2228396528251</v>
+        <v>182.2228396528252</v>
       </c>
       <c r="L20" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350341</v>
       </c>
       <c r="M20" t="n">
-        <v>251.5392525235233</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N20" t="n">
-        <v>255.609420605546</v>
+        <v>255.6094206055461</v>
       </c>
       <c r="O20" t="n">
-        <v>241.3647276480052</v>
+        <v>241.3647276480053</v>
       </c>
       <c r="P20" t="n">
-        <v>205.9992108772408</v>
+        <v>205.9992108772409</v>
       </c>
       <c r="Q20" t="n">
-        <v>154.6968283211699</v>
+        <v>154.69682832117</v>
       </c>
       <c r="R20" t="n">
-        <v>89.98599059651762</v>
+        <v>89.98599059651767</v>
       </c>
       <c r="S20" t="n">
-        <v>32.64371497372328</v>
+        <v>32.64371497372331</v>
       </c>
       <c r="T20" t="n">
-        <v>6.27088808765655</v>
+        <v>6.270888087656552</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1146021809280465</v>
+        <v>0.1146021809280466</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7664696569969534</v>
+        <v>0.7664696569969537</v>
       </c>
       <c r="H21" t="n">
-        <v>7.402483266260051</v>
+        <v>7.402483266260054</v>
       </c>
       <c r="I21" t="n">
-        <v>26.38941582204423</v>
+        <v>26.38941582204424</v>
       </c>
       <c r="J21" t="n">
-        <v>72.41457404110251</v>
+        <v>72.41457404110255</v>
       </c>
       <c r="K21" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598985</v>
       </c>
       <c r="L21" t="n">
         <v>166.4214051299745</v>
       </c>
       <c r="M21" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961141</v>
       </c>
       <c r="N21" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906244</v>
       </c>
       <c r="O21" t="n">
-        <v>182.3626293119023</v>
+        <v>182.3626293119024</v>
       </c>
       <c r="P21" t="n">
-        <v>146.3620873961989</v>
+        <v>146.362087396199</v>
       </c>
       <c r="Q21" t="n">
-        <v>97.83917937385672</v>
+        <v>97.83917937385677</v>
       </c>
       <c r="R21" t="n">
-        <v>47.58835291424946</v>
+        <v>47.58835291424948</v>
       </c>
       <c r="S21" t="n">
         <v>14.23683770781621</v>
       </c>
       <c r="T21" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141229</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05042563532874695</v>
+        <v>0.05042563532874697</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6425824130417367</v>
+        <v>0.642582413041737</v>
       </c>
       <c r="H22" t="n">
-        <v>5.713141817771081</v>
+        <v>5.713141817771085</v>
       </c>
       <c r="I22" t="n">
-        <v>19.32420565765514</v>
+        <v>19.32420565765515</v>
       </c>
       <c r="J22" t="n">
-        <v>45.43057660205078</v>
+        <v>45.43057660205081</v>
       </c>
       <c r="K22" t="n">
-        <v>74.65639307884904</v>
+        <v>74.65639307884906</v>
       </c>
       <c r="L22" t="n">
-        <v>95.53447984440513</v>
+        <v>95.53447984440518</v>
       </c>
       <c r="M22" t="n">
-        <v>100.7277140734424</v>
+        <v>100.7277140734425</v>
       </c>
       <c r="N22" t="n">
-        <v>98.33263417028692</v>
+        <v>98.33263417028698</v>
       </c>
       <c r="O22" t="n">
-        <v>90.82610325429933</v>
+        <v>90.82610325429937</v>
       </c>
       <c r="P22" t="n">
-        <v>77.71742202824784</v>
+        <v>77.71742202824788</v>
       </c>
       <c r="Q22" t="n">
-        <v>53.80751460479489</v>
+        <v>53.80751460479491</v>
       </c>
       <c r="R22" t="n">
-        <v>28.89284195367663</v>
+        <v>28.89284195367664</v>
       </c>
       <c r="S22" t="n">
-        <v>11.19845896182735</v>
+        <v>11.19845896182736</v>
       </c>
       <c r="T22" t="n">
-        <v>2.745579401178329</v>
+        <v>2.74557940117833</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03504994980227659</v>
+        <v>0.03504994980227661</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,46 +32703,46 @@
         <v>1.432527261600582</v>
       </c>
       <c r="H23" t="n">
-        <v>14.67086981786696</v>
+        <v>14.67086981786697</v>
       </c>
       <c r="I23" t="n">
-        <v>55.22750725285648</v>
+        <v>55.2275072528565</v>
       </c>
       <c r="J23" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K23" t="n">
-        <v>182.2228396528251</v>
+        <v>182.2228396528252</v>
       </c>
       <c r="L23" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350341</v>
       </c>
       <c r="M23" t="n">
-        <v>251.5392525235233</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N23" t="n">
-        <v>255.609420605546</v>
+        <v>255.6094206055461</v>
       </c>
       <c r="O23" t="n">
-        <v>241.3647276480052</v>
+        <v>241.3647276480053</v>
       </c>
       <c r="P23" t="n">
-        <v>205.9992108772408</v>
+        <v>205.9992108772409</v>
       </c>
       <c r="Q23" t="n">
-        <v>154.6968283211699</v>
+        <v>154.69682832117</v>
       </c>
       <c r="R23" t="n">
-        <v>89.98599059651762</v>
+        <v>89.98599059651767</v>
       </c>
       <c r="S23" t="n">
-        <v>32.64371497372328</v>
+        <v>32.64371497372331</v>
       </c>
       <c r="T23" t="n">
-        <v>6.27088808765655</v>
+        <v>6.270888087656552</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1146021809280465</v>
+        <v>0.1146021809280466</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7664696569969534</v>
+        <v>0.7664696569969537</v>
       </c>
       <c r="H24" t="n">
-        <v>7.402483266260051</v>
+        <v>7.402483266260054</v>
       </c>
       <c r="I24" t="n">
-        <v>26.38941582204423</v>
+        <v>26.38941582204424</v>
       </c>
       <c r="J24" t="n">
-        <v>72.41457404110251</v>
+        <v>72.41457404110255</v>
       </c>
       <c r="K24" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598985</v>
       </c>
       <c r="L24" t="n">
         <v>166.4214051299745</v>
       </c>
       <c r="M24" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961141</v>
       </c>
       <c r="N24" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906244</v>
       </c>
       <c r="O24" t="n">
-        <v>182.3626293119023</v>
+        <v>182.3626293119024</v>
       </c>
       <c r="P24" t="n">
-        <v>146.3620873961989</v>
+        <v>146.362087396199</v>
       </c>
       <c r="Q24" t="n">
-        <v>97.83917937385672</v>
+        <v>97.83917937385677</v>
       </c>
       <c r="R24" t="n">
-        <v>47.58835291424946</v>
+        <v>47.58835291424948</v>
       </c>
       <c r="S24" t="n">
         <v>14.23683770781621</v>
       </c>
       <c r="T24" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141229</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05042563532874695</v>
+        <v>0.05042563532874697</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6425824130417367</v>
+        <v>0.642582413041737</v>
       </c>
       <c r="H25" t="n">
-        <v>5.713141817771081</v>
+        <v>5.713141817771085</v>
       </c>
       <c r="I25" t="n">
-        <v>19.32420565765514</v>
+        <v>19.32420565765515</v>
       </c>
       <c r="J25" t="n">
-        <v>45.43057660205078</v>
+        <v>45.43057660205081</v>
       </c>
       <c r="K25" t="n">
-        <v>74.65639307884904</v>
+        <v>74.65639307884906</v>
       </c>
       <c r="L25" t="n">
-        <v>95.53447984440513</v>
+        <v>95.53447984440518</v>
       </c>
       <c r="M25" t="n">
-        <v>100.7277140734424</v>
+        <v>100.7277140734425</v>
       </c>
       <c r="N25" t="n">
-        <v>98.33263417028692</v>
+        <v>98.33263417028698</v>
       </c>
       <c r="O25" t="n">
-        <v>90.82610325429933</v>
+        <v>90.82610325429937</v>
       </c>
       <c r="P25" t="n">
-        <v>77.71742202824784</v>
+        <v>77.71742202824788</v>
       </c>
       <c r="Q25" t="n">
-        <v>53.80751460479489</v>
+        <v>53.80751460479491</v>
       </c>
       <c r="R25" t="n">
-        <v>28.89284195367663</v>
+        <v>28.89284195367664</v>
       </c>
       <c r="S25" t="n">
-        <v>11.19845896182735</v>
+        <v>11.19845896182736</v>
       </c>
       <c r="T25" t="n">
-        <v>2.745579401178329</v>
+        <v>2.74557940117833</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03504994980227659</v>
+        <v>0.03504994980227661</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,46 +32940,46 @@
         <v>1.432527261600582</v>
       </c>
       <c r="H26" t="n">
-        <v>14.67086981786696</v>
+        <v>14.67086981786697</v>
       </c>
       <c r="I26" t="n">
-        <v>55.22750725285648</v>
+        <v>55.2275072528565</v>
       </c>
       <c r="J26" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K26" t="n">
-        <v>182.2228396528251</v>
+        <v>182.2228396528252</v>
       </c>
       <c r="L26" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350341</v>
       </c>
       <c r="M26" t="n">
-        <v>251.5392525235233</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N26" t="n">
-        <v>255.609420605546</v>
+        <v>255.6094206055461</v>
       </c>
       <c r="O26" t="n">
-        <v>241.3647276480052</v>
+        <v>241.3647276480053</v>
       </c>
       <c r="P26" t="n">
-        <v>205.9992108772408</v>
+        <v>205.9992108772409</v>
       </c>
       <c r="Q26" t="n">
-        <v>154.6968283211699</v>
+        <v>154.69682832117</v>
       </c>
       <c r="R26" t="n">
-        <v>89.98599059651762</v>
+        <v>89.98599059651767</v>
       </c>
       <c r="S26" t="n">
-        <v>32.64371497372328</v>
+        <v>32.64371497372331</v>
       </c>
       <c r="T26" t="n">
-        <v>6.27088808765655</v>
+        <v>6.270888087656552</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1146021809280465</v>
+        <v>0.1146021809280466</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7664696569969534</v>
+        <v>0.7664696569969537</v>
       </c>
       <c r="H27" t="n">
-        <v>7.402483266260051</v>
+        <v>7.402483266260054</v>
       </c>
       <c r="I27" t="n">
-        <v>26.38941582204423</v>
+        <v>26.38941582204424</v>
       </c>
       <c r="J27" t="n">
-        <v>72.41457404110251</v>
+        <v>72.41457404110255</v>
       </c>
       <c r="K27" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598985</v>
       </c>
       <c r="L27" t="n">
         <v>166.4214051299745</v>
       </c>
       <c r="M27" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961141</v>
       </c>
       <c r="N27" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906244</v>
       </c>
       <c r="O27" t="n">
-        <v>182.3626293119023</v>
+        <v>182.3626293119024</v>
       </c>
       <c r="P27" t="n">
-        <v>146.3620873961989</v>
+        <v>146.362087396199</v>
       </c>
       <c r="Q27" t="n">
-        <v>97.83917937385672</v>
+        <v>97.83917937385677</v>
       </c>
       <c r="R27" t="n">
-        <v>47.58835291424946</v>
+        <v>47.58835291424948</v>
       </c>
       <c r="S27" t="n">
         <v>14.23683770781621</v>
       </c>
       <c r="T27" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141229</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05042563532874695</v>
+        <v>0.05042563532874697</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6425824130417367</v>
+        <v>0.642582413041737</v>
       </c>
       <c r="H28" t="n">
-        <v>5.713141817771081</v>
+        <v>5.713141817771085</v>
       </c>
       <c r="I28" t="n">
-        <v>19.32420565765514</v>
+        <v>19.32420565765515</v>
       </c>
       <c r="J28" t="n">
-        <v>45.43057660205078</v>
+        <v>45.43057660205081</v>
       </c>
       <c r="K28" t="n">
-        <v>74.65639307884904</v>
+        <v>74.65639307884906</v>
       </c>
       <c r="L28" t="n">
-        <v>95.53447984440513</v>
+        <v>95.53447984440518</v>
       </c>
       <c r="M28" t="n">
-        <v>100.7277140734424</v>
+        <v>100.7277140734425</v>
       </c>
       <c r="N28" t="n">
-        <v>98.33263417028692</v>
+        <v>98.33263417028698</v>
       </c>
       <c r="O28" t="n">
-        <v>90.82610325429933</v>
+        <v>90.82610325429937</v>
       </c>
       <c r="P28" t="n">
-        <v>77.71742202824784</v>
+        <v>77.71742202824788</v>
       </c>
       <c r="Q28" t="n">
-        <v>53.80751460479489</v>
+        <v>53.80751460479491</v>
       </c>
       <c r="R28" t="n">
-        <v>28.89284195367663</v>
+        <v>28.89284195367664</v>
       </c>
       <c r="S28" t="n">
-        <v>11.19845896182735</v>
+        <v>11.19845896182736</v>
       </c>
       <c r="T28" t="n">
-        <v>2.745579401178329</v>
+        <v>2.74557940117833</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03504994980227659</v>
+        <v>0.03504994980227661</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,46 +33177,46 @@
         <v>1.432527261600582</v>
       </c>
       <c r="H29" t="n">
-        <v>14.67086981786696</v>
+        <v>14.67086981786697</v>
       </c>
       <c r="I29" t="n">
-        <v>55.22750725285648</v>
+        <v>55.2275072528565</v>
       </c>
       <c r="J29" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K29" t="n">
-        <v>182.2228396528251</v>
+        <v>182.2228396528252</v>
       </c>
       <c r="L29" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350341</v>
       </c>
       <c r="M29" t="n">
-        <v>251.5392525235233</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N29" t="n">
-        <v>255.609420605546</v>
+        <v>255.6094206055461</v>
       </c>
       <c r="O29" t="n">
-        <v>241.3647276480052</v>
+        <v>241.3647276480053</v>
       </c>
       <c r="P29" t="n">
-        <v>205.9992108772408</v>
+        <v>205.9992108772409</v>
       </c>
       <c r="Q29" t="n">
-        <v>154.6968283211699</v>
+        <v>154.69682832117</v>
       </c>
       <c r="R29" t="n">
-        <v>89.98599059651762</v>
+        <v>89.98599059651767</v>
       </c>
       <c r="S29" t="n">
-        <v>32.64371497372328</v>
+        <v>32.64371497372331</v>
       </c>
       <c r="T29" t="n">
-        <v>6.27088808765655</v>
+        <v>6.270888087656552</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1146021809280465</v>
+        <v>0.1146021809280466</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7664696569969534</v>
+        <v>0.7664696569969537</v>
       </c>
       <c r="H30" t="n">
-        <v>7.402483266260051</v>
+        <v>7.402483266260054</v>
       </c>
       <c r="I30" t="n">
-        <v>26.38941582204423</v>
+        <v>26.38941582204424</v>
       </c>
       <c r="J30" t="n">
-        <v>72.41457404110251</v>
+        <v>72.41457404110255</v>
       </c>
       <c r="K30" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598985</v>
       </c>
       <c r="L30" t="n">
         <v>166.4214051299745</v>
       </c>
       <c r="M30" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961141</v>
       </c>
       <c r="N30" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906244</v>
       </c>
       <c r="O30" t="n">
-        <v>182.3626293119023</v>
+        <v>182.3626293119024</v>
       </c>
       <c r="P30" t="n">
-        <v>146.3620873961989</v>
+        <v>146.362087396199</v>
       </c>
       <c r="Q30" t="n">
-        <v>97.83917937385672</v>
+        <v>97.83917937385677</v>
       </c>
       <c r="R30" t="n">
-        <v>47.58835291424946</v>
+        <v>47.58835291424948</v>
       </c>
       <c r="S30" t="n">
         <v>14.23683770781621</v>
       </c>
       <c r="T30" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141229</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05042563532874695</v>
+        <v>0.05042563532874697</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6425824130417367</v>
+        <v>0.642582413041737</v>
       </c>
       <c r="H31" t="n">
-        <v>5.713141817771081</v>
+        <v>5.713141817771085</v>
       </c>
       <c r="I31" t="n">
-        <v>19.32420565765514</v>
+        <v>19.32420565765515</v>
       </c>
       <c r="J31" t="n">
-        <v>45.43057660205078</v>
+        <v>45.43057660205081</v>
       </c>
       <c r="K31" t="n">
-        <v>74.65639307884904</v>
+        <v>74.65639307884906</v>
       </c>
       <c r="L31" t="n">
-        <v>95.53447984440513</v>
+        <v>95.53447984440518</v>
       </c>
       <c r="M31" t="n">
-        <v>100.7277140734424</v>
+        <v>100.7277140734425</v>
       </c>
       <c r="N31" t="n">
-        <v>98.33263417028692</v>
+        <v>98.33263417028698</v>
       </c>
       <c r="O31" t="n">
-        <v>90.82610325429933</v>
+        <v>90.82610325429937</v>
       </c>
       <c r="P31" t="n">
-        <v>77.71742202824784</v>
+        <v>77.71742202824788</v>
       </c>
       <c r="Q31" t="n">
-        <v>53.80751460479489</v>
+        <v>53.80751460479491</v>
       </c>
       <c r="R31" t="n">
-        <v>28.89284195367663</v>
+        <v>28.89284195367664</v>
       </c>
       <c r="S31" t="n">
-        <v>11.19845896182735</v>
+        <v>11.19845896182736</v>
       </c>
       <c r="T31" t="n">
-        <v>2.745579401178329</v>
+        <v>2.74557940117833</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03504994980227659</v>
+        <v>0.03504994980227661</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,46 +33414,46 @@
         <v>1.432527261600582</v>
       </c>
       <c r="H32" t="n">
-        <v>14.67086981786696</v>
+        <v>14.67086981786697</v>
       </c>
       <c r="I32" t="n">
-        <v>55.22750725285648</v>
+        <v>55.2275072528565</v>
       </c>
       <c r="J32" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K32" t="n">
-        <v>182.2228396528251</v>
+        <v>182.2228396528252</v>
       </c>
       <c r="L32" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350341</v>
       </c>
       <c r="M32" t="n">
-        <v>251.5392525235233</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N32" t="n">
-        <v>255.609420605546</v>
+        <v>255.6094206055461</v>
       </c>
       <c r="O32" t="n">
-        <v>241.3647276480052</v>
+        <v>241.3647276480053</v>
       </c>
       <c r="P32" t="n">
-        <v>205.9992108772408</v>
+        <v>205.9992108772409</v>
       </c>
       <c r="Q32" t="n">
-        <v>154.6968283211699</v>
+        <v>154.69682832117</v>
       </c>
       <c r="R32" t="n">
-        <v>89.98599059651762</v>
+        <v>89.98599059651767</v>
       </c>
       <c r="S32" t="n">
-        <v>32.64371497372328</v>
+        <v>32.64371497372331</v>
       </c>
       <c r="T32" t="n">
-        <v>6.27088808765655</v>
+        <v>6.270888087656552</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1146021809280465</v>
+        <v>0.1146021809280466</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7664696569969534</v>
+        <v>0.7664696569969537</v>
       </c>
       <c r="H33" t="n">
-        <v>7.402483266260051</v>
+        <v>7.402483266260054</v>
       </c>
       <c r="I33" t="n">
-        <v>26.38941582204423</v>
+        <v>26.38941582204424</v>
       </c>
       <c r="J33" t="n">
-        <v>72.41457404110251</v>
+        <v>72.41457404110255</v>
       </c>
       <c r="K33" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598985</v>
       </c>
       <c r="L33" t="n">
         <v>166.4214051299745</v>
       </c>
       <c r="M33" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961141</v>
       </c>
       <c r="N33" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906244</v>
       </c>
       <c r="O33" t="n">
-        <v>182.3626293119023</v>
+        <v>182.3626293119024</v>
       </c>
       <c r="P33" t="n">
-        <v>146.3620873961989</v>
+        <v>146.362087396199</v>
       </c>
       <c r="Q33" t="n">
-        <v>97.83917937385672</v>
+        <v>97.83917937385677</v>
       </c>
       <c r="R33" t="n">
-        <v>47.58835291424946</v>
+        <v>47.58835291424948</v>
       </c>
       <c r="S33" t="n">
         <v>14.23683770781621</v>
       </c>
       <c r="T33" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141229</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05042563532874695</v>
+        <v>0.05042563532874697</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6425824130417367</v>
+        <v>0.642582413041737</v>
       </c>
       <c r="H34" t="n">
-        <v>5.713141817771081</v>
+        <v>5.713141817771085</v>
       </c>
       <c r="I34" t="n">
-        <v>19.32420565765514</v>
+        <v>19.32420565765515</v>
       </c>
       <c r="J34" t="n">
-        <v>45.43057660205078</v>
+        <v>45.43057660205081</v>
       </c>
       <c r="K34" t="n">
-        <v>74.65639307884904</v>
+        <v>74.65639307884906</v>
       </c>
       <c r="L34" t="n">
-        <v>95.53447984440513</v>
+        <v>95.53447984440518</v>
       </c>
       <c r="M34" t="n">
-        <v>100.7277140734424</v>
+        <v>100.7277140734425</v>
       </c>
       <c r="N34" t="n">
-        <v>98.33263417028692</v>
+        <v>98.33263417028698</v>
       </c>
       <c r="O34" t="n">
-        <v>90.82610325429933</v>
+        <v>90.82610325429937</v>
       </c>
       <c r="P34" t="n">
-        <v>77.71742202824784</v>
+        <v>77.71742202824788</v>
       </c>
       <c r="Q34" t="n">
-        <v>53.80751460479489</v>
+        <v>53.80751460479491</v>
       </c>
       <c r="R34" t="n">
-        <v>28.89284195367663</v>
+        <v>28.89284195367664</v>
       </c>
       <c r="S34" t="n">
-        <v>11.19845896182735</v>
+        <v>11.19845896182736</v>
       </c>
       <c r="T34" t="n">
-        <v>2.745579401178329</v>
+        <v>2.74557940117833</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03504994980227659</v>
+        <v>0.03504994980227661</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,46 +33651,46 @@
         <v>1.432527261600582</v>
       </c>
       <c r="H35" t="n">
-        <v>14.67086981786696</v>
+        <v>14.67086981786697</v>
       </c>
       <c r="I35" t="n">
-        <v>55.22750725285648</v>
+        <v>55.2275072528565</v>
       </c>
       <c r="J35" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K35" t="n">
-        <v>182.2228396528251</v>
+        <v>182.2228396528252</v>
       </c>
       <c r="L35" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350341</v>
       </c>
       <c r="M35" t="n">
-        <v>251.5392525235233</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N35" t="n">
-        <v>255.609420605546</v>
+        <v>255.6094206055461</v>
       </c>
       <c r="O35" t="n">
-        <v>241.3647276480052</v>
+        <v>241.3647276480053</v>
       </c>
       <c r="P35" t="n">
-        <v>205.9992108772408</v>
+        <v>205.9992108772409</v>
       </c>
       <c r="Q35" t="n">
-        <v>154.6968283211699</v>
+        <v>154.69682832117</v>
       </c>
       <c r="R35" t="n">
-        <v>89.98599059651762</v>
+        <v>89.98599059651767</v>
       </c>
       <c r="S35" t="n">
-        <v>32.64371497372328</v>
+        <v>32.64371497372331</v>
       </c>
       <c r="T35" t="n">
-        <v>6.27088808765655</v>
+        <v>6.270888087656552</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1146021809280465</v>
+        <v>0.1146021809280466</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7664696569969534</v>
+        <v>0.7664696569969537</v>
       </c>
       <c r="H36" t="n">
-        <v>7.402483266260051</v>
+        <v>7.402483266260054</v>
       </c>
       <c r="I36" t="n">
-        <v>26.38941582204423</v>
+        <v>26.38941582204424</v>
       </c>
       <c r="J36" t="n">
-        <v>72.41457404110251</v>
+        <v>72.41457404110255</v>
       </c>
       <c r="K36" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598985</v>
       </c>
       <c r="L36" t="n">
         <v>166.4214051299745</v>
       </c>
       <c r="M36" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961141</v>
       </c>
       <c r="N36" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906244</v>
       </c>
       <c r="O36" t="n">
-        <v>182.3626293119023</v>
+        <v>182.3626293119024</v>
       </c>
       <c r="P36" t="n">
-        <v>146.3620873961989</v>
+        <v>146.362087396199</v>
       </c>
       <c r="Q36" t="n">
-        <v>97.83917937385672</v>
+        <v>97.83917937385677</v>
       </c>
       <c r="R36" t="n">
-        <v>47.58835291424946</v>
+        <v>47.58835291424948</v>
       </c>
       <c r="S36" t="n">
         <v>14.23683770781621</v>
       </c>
       <c r="T36" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141229</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05042563532874695</v>
+        <v>0.05042563532874697</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6425824130417367</v>
+        <v>0.642582413041737</v>
       </c>
       <c r="H37" t="n">
-        <v>5.713141817771081</v>
+        <v>5.713141817771085</v>
       </c>
       <c r="I37" t="n">
-        <v>19.32420565765514</v>
+        <v>19.32420565765515</v>
       </c>
       <c r="J37" t="n">
-        <v>45.43057660205078</v>
+        <v>45.43057660205081</v>
       </c>
       <c r="K37" t="n">
-        <v>74.65639307884904</v>
+        <v>74.65639307884906</v>
       </c>
       <c r="L37" t="n">
-        <v>95.53447984440513</v>
+        <v>95.53447984440518</v>
       </c>
       <c r="M37" t="n">
-        <v>100.7277140734424</v>
+        <v>100.7277140734425</v>
       </c>
       <c r="N37" t="n">
-        <v>98.33263417028692</v>
+        <v>98.33263417028698</v>
       </c>
       <c r="O37" t="n">
-        <v>90.82610325429933</v>
+        <v>90.82610325429937</v>
       </c>
       <c r="P37" t="n">
-        <v>77.71742202824784</v>
+        <v>77.71742202824788</v>
       </c>
       <c r="Q37" t="n">
-        <v>53.80751460479489</v>
+        <v>53.80751460479491</v>
       </c>
       <c r="R37" t="n">
-        <v>28.89284195367663</v>
+        <v>28.89284195367664</v>
       </c>
       <c r="S37" t="n">
-        <v>11.19845896182735</v>
+        <v>11.19845896182736</v>
       </c>
       <c r="T37" t="n">
-        <v>2.745579401178329</v>
+        <v>2.74557940117833</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03504994980227659</v>
+        <v>0.03504994980227661</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,46 +33888,46 @@
         <v>1.432527261600582</v>
       </c>
       <c r="H38" t="n">
-        <v>14.67086981786696</v>
+        <v>14.67086981786697</v>
       </c>
       <c r="I38" t="n">
-        <v>55.22750725285648</v>
+        <v>55.2275072528565</v>
       </c>
       <c r="J38" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K38" t="n">
-        <v>182.2228396528251</v>
+        <v>182.2228396528252</v>
       </c>
       <c r="L38" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350341</v>
       </c>
       <c r="M38" t="n">
-        <v>251.5392525235233</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N38" t="n">
-        <v>255.609420605546</v>
+        <v>255.6094206055461</v>
       </c>
       <c r="O38" t="n">
-        <v>241.3647276480052</v>
+        <v>241.3647276480053</v>
       </c>
       <c r="P38" t="n">
-        <v>205.9992108772408</v>
+        <v>205.9992108772409</v>
       </c>
       <c r="Q38" t="n">
-        <v>154.6968283211699</v>
+        <v>154.69682832117</v>
       </c>
       <c r="R38" t="n">
-        <v>89.98599059651762</v>
+        <v>89.98599059651767</v>
       </c>
       <c r="S38" t="n">
-        <v>32.64371497372328</v>
+        <v>32.64371497372331</v>
       </c>
       <c r="T38" t="n">
-        <v>6.27088808765655</v>
+        <v>6.270888087656552</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1146021809280465</v>
+        <v>0.1146021809280466</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7664696569969534</v>
+        <v>0.7664696569969537</v>
       </c>
       <c r="H39" t="n">
-        <v>7.402483266260051</v>
+        <v>7.402483266260054</v>
       </c>
       <c r="I39" t="n">
-        <v>26.38941582204423</v>
+        <v>26.38941582204424</v>
       </c>
       <c r="J39" t="n">
-        <v>72.41457404110251</v>
+        <v>72.41457404110255</v>
       </c>
       <c r="K39" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598985</v>
       </c>
       <c r="L39" t="n">
         <v>166.4214051299745</v>
       </c>
       <c r="M39" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961141</v>
       </c>
       <c r="N39" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906244</v>
       </c>
       <c r="O39" t="n">
-        <v>182.3626293119023</v>
+        <v>182.3626293119024</v>
       </c>
       <c r="P39" t="n">
-        <v>146.3620873961989</v>
+        <v>146.362087396199</v>
       </c>
       <c r="Q39" t="n">
-        <v>97.83917937385672</v>
+        <v>97.83917937385677</v>
       </c>
       <c r="R39" t="n">
-        <v>47.58835291424946</v>
+        <v>47.58835291424948</v>
       </c>
       <c r="S39" t="n">
         <v>14.23683770781621</v>
       </c>
       <c r="T39" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141229</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05042563532874695</v>
+        <v>0.05042563532874697</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6425824130417367</v>
+        <v>0.642582413041737</v>
       </c>
       <c r="H40" t="n">
-        <v>5.713141817771081</v>
+        <v>5.713141817771085</v>
       </c>
       <c r="I40" t="n">
-        <v>19.32420565765514</v>
+        <v>19.32420565765515</v>
       </c>
       <c r="J40" t="n">
-        <v>45.43057660205078</v>
+        <v>45.43057660205081</v>
       </c>
       <c r="K40" t="n">
-        <v>74.65639307884904</v>
+        <v>74.65639307884906</v>
       </c>
       <c r="L40" t="n">
-        <v>95.53447984440513</v>
+        <v>95.53447984440518</v>
       </c>
       <c r="M40" t="n">
-        <v>100.7277140734424</v>
+        <v>100.7277140734425</v>
       </c>
       <c r="N40" t="n">
-        <v>98.33263417028692</v>
+        <v>98.33263417028698</v>
       </c>
       <c r="O40" t="n">
-        <v>90.82610325429933</v>
+        <v>90.82610325429937</v>
       </c>
       <c r="P40" t="n">
-        <v>77.71742202824784</v>
+        <v>77.71742202824788</v>
       </c>
       <c r="Q40" t="n">
-        <v>53.80751460479489</v>
+        <v>53.80751460479491</v>
       </c>
       <c r="R40" t="n">
-        <v>28.89284195367663</v>
+        <v>28.89284195367664</v>
       </c>
       <c r="S40" t="n">
-        <v>11.19845896182735</v>
+        <v>11.19845896182736</v>
       </c>
       <c r="T40" t="n">
-        <v>2.745579401178329</v>
+        <v>2.74557940117833</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03504994980227659</v>
+        <v>0.03504994980227661</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,46 +34125,46 @@
         <v>1.432527261600582</v>
       </c>
       <c r="H41" t="n">
-        <v>14.67086981786696</v>
+        <v>14.67086981786697</v>
       </c>
       <c r="I41" t="n">
-        <v>55.22750725285648</v>
+        <v>55.2275072528565</v>
       </c>
       <c r="J41" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K41" t="n">
-        <v>182.2228396528251</v>
+        <v>182.2228396528252</v>
       </c>
       <c r="L41" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350341</v>
       </c>
       <c r="M41" t="n">
-        <v>251.5392525235233</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N41" t="n">
-        <v>255.609420605546</v>
+        <v>255.6094206055461</v>
       </c>
       <c r="O41" t="n">
-        <v>241.3647276480052</v>
+        <v>241.3647276480053</v>
       </c>
       <c r="P41" t="n">
-        <v>205.9992108772408</v>
+        <v>205.9992108772409</v>
       </c>
       <c r="Q41" t="n">
-        <v>154.6968283211699</v>
+        <v>154.69682832117</v>
       </c>
       <c r="R41" t="n">
-        <v>89.98599059651762</v>
+        <v>89.98599059651767</v>
       </c>
       <c r="S41" t="n">
-        <v>32.64371497372328</v>
+        <v>32.64371497372331</v>
       </c>
       <c r="T41" t="n">
-        <v>6.27088808765655</v>
+        <v>6.270888087656552</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1146021809280465</v>
+        <v>0.1146021809280466</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7664696569969534</v>
+        <v>0.7664696569969537</v>
       </c>
       <c r="H42" t="n">
-        <v>7.402483266260051</v>
+        <v>7.402483266260054</v>
       </c>
       <c r="I42" t="n">
-        <v>26.38941582204423</v>
+        <v>26.38941582204424</v>
       </c>
       <c r="J42" t="n">
-        <v>72.41457404110251</v>
+        <v>72.41457404110255</v>
       </c>
       <c r="K42" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598985</v>
       </c>
       <c r="L42" t="n">
         <v>166.4214051299745</v>
       </c>
       <c r="M42" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961141</v>
       </c>
       <c r="N42" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906244</v>
       </c>
       <c r="O42" t="n">
-        <v>182.3626293119023</v>
+        <v>182.3626293119024</v>
       </c>
       <c r="P42" t="n">
-        <v>146.3620873961989</v>
+        <v>146.362087396199</v>
       </c>
       <c r="Q42" t="n">
-        <v>97.83917937385672</v>
+        <v>97.83917937385677</v>
       </c>
       <c r="R42" t="n">
-        <v>47.58835291424946</v>
+        <v>47.58835291424948</v>
       </c>
       <c r="S42" t="n">
         <v>14.23683770781621</v>
       </c>
       <c r="T42" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141229</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05042563532874695</v>
+        <v>0.05042563532874697</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6425824130417367</v>
+        <v>0.642582413041737</v>
       </c>
       <c r="H43" t="n">
-        <v>5.713141817771081</v>
+        <v>5.713141817771085</v>
       </c>
       <c r="I43" t="n">
-        <v>19.32420565765514</v>
+        <v>19.32420565765515</v>
       </c>
       <c r="J43" t="n">
-        <v>45.43057660205078</v>
+        <v>45.43057660205081</v>
       </c>
       <c r="K43" t="n">
-        <v>74.65639307884904</v>
+        <v>74.65639307884906</v>
       </c>
       <c r="L43" t="n">
-        <v>95.53447984440513</v>
+        <v>95.53447984440518</v>
       </c>
       <c r="M43" t="n">
-        <v>100.7277140734424</v>
+        <v>100.7277140734425</v>
       </c>
       <c r="N43" t="n">
-        <v>98.33263417028692</v>
+        <v>98.33263417028698</v>
       </c>
       <c r="O43" t="n">
-        <v>90.82610325429933</v>
+        <v>90.82610325429937</v>
       </c>
       <c r="P43" t="n">
-        <v>77.71742202824784</v>
+        <v>77.71742202824788</v>
       </c>
       <c r="Q43" t="n">
-        <v>53.80751460479489</v>
+        <v>53.80751460479491</v>
       </c>
       <c r="R43" t="n">
-        <v>28.89284195367663</v>
+        <v>28.89284195367664</v>
       </c>
       <c r="S43" t="n">
-        <v>11.19845896182735</v>
+        <v>11.19845896182736</v>
       </c>
       <c r="T43" t="n">
-        <v>2.745579401178329</v>
+        <v>2.74557940117833</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03504994980227659</v>
+        <v>0.03504994980227661</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,46 +34362,46 @@
         <v>1.432527261600582</v>
       </c>
       <c r="H44" t="n">
-        <v>14.67086981786696</v>
+        <v>14.67086981786697</v>
       </c>
       <c r="I44" t="n">
-        <v>55.22750725285648</v>
+        <v>55.2275072528565</v>
       </c>
       <c r="J44" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K44" t="n">
-        <v>182.2228396528251</v>
+        <v>182.2228396528252</v>
       </c>
       <c r="L44" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350341</v>
       </c>
       <c r="M44" t="n">
-        <v>251.5392525235233</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N44" t="n">
-        <v>255.609420605546</v>
+        <v>255.6094206055461</v>
       </c>
       <c r="O44" t="n">
-        <v>241.3647276480052</v>
+        <v>241.3647276480053</v>
       </c>
       <c r="P44" t="n">
-        <v>205.9992108772408</v>
+        <v>205.9992108772409</v>
       </c>
       <c r="Q44" t="n">
-        <v>154.6968283211699</v>
+        <v>154.69682832117</v>
       </c>
       <c r="R44" t="n">
-        <v>89.98599059651762</v>
+        <v>89.98599059651767</v>
       </c>
       <c r="S44" t="n">
-        <v>32.64371497372328</v>
+        <v>32.64371497372331</v>
       </c>
       <c r="T44" t="n">
-        <v>6.27088808765655</v>
+        <v>6.270888087656552</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1146021809280465</v>
+        <v>0.1146021809280466</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7664696569969534</v>
+        <v>0.7664696569969537</v>
       </c>
       <c r="H45" t="n">
-        <v>7.402483266260051</v>
+        <v>7.402483266260054</v>
       </c>
       <c r="I45" t="n">
-        <v>26.38941582204423</v>
+        <v>26.38941582204424</v>
       </c>
       <c r="J45" t="n">
-        <v>72.41457404110251</v>
+        <v>72.41457404110255</v>
       </c>
       <c r="K45" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598985</v>
       </c>
       <c r="L45" t="n">
         <v>166.4214051299745</v>
       </c>
       <c r="M45" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961141</v>
       </c>
       <c r="N45" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906244</v>
       </c>
       <c r="O45" t="n">
-        <v>182.3626293119023</v>
+        <v>182.3626293119024</v>
       </c>
       <c r="P45" t="n">
-        <v>146.3620873961989</v>
+        <v>146.362087396199</v>
       </c>
       <c r="Q45" t="n">
-        <v>97.83917937385672</v>
+        <v>97.83917937385677</v>
       </c>
       <c r="R45" t="n">
-        <v>47.58835291424946</v>
+        <v>47.58835291424948</v>
       </c>
       <c r="S45" t="n">
         <v>14.23683770781621</v>
       </c>
       <c r="T45" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141229</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05042563532874695</v>
+        <v>0.05042563532874697</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6425824130417367</v>
+        <v>0.642582413041737</v>
       </c>
       <c r="H46" t="n">
-        <v>5.713141817771081</v>
+        <v>5.713141817771085</v>
       </c>
       <c r="I46" t="n">
-        <v>19.32420565765514</v>
+        <v>19.32420565765515</v>
       </c>
       <c r="J46" t="n">
-        <v>45.43057660205078</v>
+        <v>45.43057660205081</v>
       </c>
       <c r="K46" t="n">
-        <v>74.65639307884904</v>
+        <v>74.65639307884906</v>
       </c>
       <c r="L46" t="n">
-        <v>95.53447984440513</v>
+        <v>95.53447984440518</v>
       </c>
       <c r="M46" t="n">
-        <v>100.7277140734424</v>
+        <v>100.7277140734425</v>
       </c>
       <c r="N46" t="n">
-        <v>98.33263417028692</v>
+        <v>98.33263417028698</v>
       </c>
       <c r="O46" t="n">
-        <v>90.82610325429933</v>
+        <v>90.82610325429937</v>
       </c>
       <c r="P46" t="n">
-        <v>77.71742202824784</v>
+        <v>77.71742202824788</v>
       </c>
       <c r="Q46" t="n">
-        <v>53.80751460479489</v>
+        <v>53.80751460479491</v>
       </c>
       <c r="R46" t="n">
-        <v>28.89284195367663</v>
+        <v>28.89284195367664</v>
       </c>
       <c r="S46" t="n">
-        <v>11.19845896182735</v>
+        <v>11.19845896182736</v>
       </c>
       <c r="T46" t="n">
-        <v>2.745579401178329</v>
+        <v>2.74557940117833</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03504994980227659</v>
+        <v>0.03504994980227661</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34707,19 +34707,19 @@
         <v>41.31500304752735</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="N2" t="n">
-        <v>41.31500304752736</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="O2" t="n">
-        <v>41.31500304752734</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34792,10 +34792,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="P3" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="P3" t="n">
-        <v>39.64570999510202</v>
       </c>
       <c r="Q3" t="n">
         <v>41.31500304752734</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="N4" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>39.64570999510201</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>41.31500304752734</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>41.31500304752734</v>
@@ -35011,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K6" t="n">
-        <v>41.31500304752735</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="O6" t="n">
+      <c r="R6" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>39.64570999510201</v>
-      </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="K8" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="M8" t="n">
-        <v>41.31500304752736</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35248,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -35257,25 +35257,25 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>41.31500304752735</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="P9" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="R9" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="L10" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>41.31500304752734</v>
@@ -35406,16 +35406,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>54.81488577372508</v>
+        <v>54.81488577372511</v>
       </c>
       <c r="J11" t="n">
-        <v>121.5839606692725</v>
+        <v>216.0345573292335</v>
       </c>
       <c r="K11" t="n">
-        <v>751.5725302939657</v>
+        <v>182.2228396528252</v>
       </c>
       <c r="L11" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350341</v>
       </c>
       <c r="M11" t="n">
         <v>251.5392525235234</v>
@@ -35424,13 +35424,13 @@
         <v>255.6094206055461</v>
       </c>
       <c r="O11" t="n">
-        <v>751.5725302939659</v>
+        <v>241.3647276480053</v>
       </c>
       <c r="P11" t="n">
-        <v>205.9992108772408</v>
+        <v>751.5725302939657</v>
       </c>
       <c r="Q11" t="n">
-        <v>267.1822268265073</v>
+        <v>706.7158040369222</v>
       </c>
       <c r="R11" t="n">
         <v>89.98599059651769</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.38941582204423</v>
+        <v>52.71635840836505</v>
       </c>
       <c r="J12" t="n">
-        <v>400.2512659261655</v>
+        <v>72.41457404110255</v>
       </c>
       <c r="K12" t="n">
-        <v>193.2096071907296</v>
+        <v>123.7680410598985</v>
       </c>
       <c r="L12" t="n">
         <v>166.4214051299745</v>
       </c>
       <c r="M12" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961141</v>
       </c>
       <c r="N12" t="n">
-        <v>199.3459832906242</v>
+        <v>199.3459832906244</v>
       </c>
       <c r="O12" t="n">
-        <v>182.3626293119023</v>
+        <v>182.3626293119024</v>
       </c>
       <c r="P12" t="n">
         <v>146.3620873961991</v>
       </c>
       <c r="Q12" t="n">
-        <v>97.83917937385672</v>
+        <v>350.4341532939955</v>
       </c>
       <c r="R12" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>132.8848040411314</v>
+        <v>45.4305766020508</v>
       </c>
       <c r="K13" t="n">
-        <v>352.1901855749455</v>
+        <v>297.6471075097742</v>
       </c>
       <c r="L13" t="n">
-        <v>517.9687038524465</v>
+        <v>517.9687038524467</v>
       </c>
       <c r="M13" t="n">
-        <v>252.9638351515955</v>
+        <v>564.8528324380011</v>
       </c>
       <c r="N13" t="n">
-        <v>545.0586979658874</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O13" t="n">
         <v>514.7344358055939</v>
@@ -35588,10 +35588,10 @@
         <v>428.7344866447547</v>
       </c>
       <c r="Q13" t="n">
-        <v>223.6992063869488</v>
+        <v>53.80751460479496</v>
       </c>
       <c r="R13" t="n">
-        <v>7.689198871994794</v>
+        <v>7.689198871994805</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>54.81488577372508</v>
+        <v>54.81488577372511</v>
       </c>
       <c r="J14" t="n">
-        <v>561.2351601166642</v>
+        <v>121.5839606692725</v>
       </c>
       <c r="K14" t="n">
-        <v>211.7328646123655</v>
+        <v>751.5725302939657</v>
       </c>
       <c r="L14" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350341</v>
       </c>
       <c r="M14" t="n">
         <v>251.5392525235234</v>
       </c>
       <c r="N14" t="n">
-        <v>255.6094206055459</v>
+        <v>255.6094206055461</v>
       </c>
       <c r="O14" t="n">
-        <v>241.3647276480051</v>
+        <v>241.3647276480053</v>
       </c>
       <c r="P14" t="n">
-        <v>205.9992108772408</v>
+        <v>751.5725302939654</v>
       </c>
       <c r="Q14" t="n">
-        <v>706.7158040369222</v>
+        <v>231.816710055743</v>
       </c>
       <c r="R14" t="n">
-        <v>260.8486822662721</v>
+        <v>89.98599059651769</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>52.71635840836505</v>
       </c>
       <c r="J15" t="n">
-        <v>72.4145740411025</v>
+        <v>325.0095479612413</v>
       </c>
       <c r="K15" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598985</v>
       </c>
       <c r="L15" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299746</v>
       </c>
       <c r="M15" t="n">
-        <v>194.2059301961139</v>
+        <v>194.2059301961141</v>
       </c>
       <c r="N15" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906244</v>
       </c>
       <c r="O15" t="n">
-        <v>553.3139447414757</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P15" t="n">
         <v>146.3620873961991</v>
@@ -35749,7 +35749,7 @@
         <v>97.83917937385672</v>
       </c>
       <c r="R15" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>132.8848040411314</v>
+        <v>45.4305766020508</v>
       </c>
       <c r="K16" t="n">
-        <v>352.1901855749455</v>
+        <v>297.6471075097742</v>
       </c>
       <c r="L16" t="n">
-        <v>517.9687038524465</v>
+        <v>517.9687038524467</v>
       </c>
       <c r="M16" t="n">
-        <v>252.9638351515955</v>
+        <v>564.8528324380011</v>
       </c>
       <c r="N16" t="n">
-        <v>545.0586979658874</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O16" t="n">
         <v>514.7344358055939</v>
@@ -35825,10 +35825,10 @@
         <v>428.7344866447547</v>
       </c>
       <c r="Q16" t="n">
-        <v>223.6992063869488</v>
+        <v>53.80751460479496</v>
       </c>
       <c r="R16" t="n">
-        <v>7.689198871994794</v>
+        <v>7.689198871994805</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,16 +35880,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>54.81488577372508</v>
+        <v>54.81488577372511</v>
       </c>
       <c r="J17" t="n">
-        <v>561.2351601166642</v>
+        <v>561.2351601166644</v>
       </c>
       <c r="K17" t="n">
-        <v>182.222839652825</v>
+        <v>182.2228396528252</v>
       </c>
       <c r="L17" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350341</v>
       </c>
       <c r="M17" t="n">
         <v>251.5392525235234</v>
@@ -35898,10 +35898,10 @@
         <v>255.6094206055461</v>
       </c>
       <c r="O17" t="n">
-        <v>241.3647276480051</v>
+        <v>241.3647276480053</v>
       </c>
       <c r="P17" t="n">
-        <v>235.509235836781</v>
+        <v>235.5092358367804</v>
       </c>
       <c r="Q17" t="n">
         <v>706.7158040369222</v>
@@ -35962,19 +35962,19 @@
         <v>52.71635840836505</v>
       </c>
       <c r="J18" t="n">
-        <v>400.2512659261655</v>
+        <v>325.0095479612413</v>
       </c>
       <c r="K18" t="n">
-        <v>123.7680410598983</v>
+        <v>123.7680410598985</v>
       </c>
       <c r="L18" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299746</v>
       </c>
       <c r="M18" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961141</v>
       </c>
       <c r="N18" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906244</v>
       </c>
       <c r="O18" t="n">
         <v>182.3626293119023</v>
@@ -35986,7 +35986,7 @@
         <v>97.83917937385672</v>
       </c>
       <c r="R18" t="n">
-        <v>90.70297645875985</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>132.8848040411314</v>
+        <v>132.8848040411315</v>
       </c>
       <c r="K19" t="n">
-        <v>352.1901855749455</v>
+        <v>352.1901855749456</v>
       </c>
       <c r="L19" t="n">
-        <v>517.9687038524465</v>
+        <v>206.0797065660406</v>
       </c>
       <c r="M19" t="n">
         <v>564.8528324380011</v>
@@ -36056,7 +36056,7 @@
         <v>545.0586979658876</v>
       </c>
       <c r="O19" t="n">
-        <v>202.8454385191881</v>
+        <v>514.7344358055939</v>
       </c>
       <c r="P19" t="n">
         <v>428.7344866447547</v>
@@ -36065,7 +36065,7 @@
         <v>223.6992063869488</v>
       </c>
       <c r="R19" t="n">
-        <v>7.689198871994794</v>
+        <v>7.689198871994805</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>54.81488577372508</v>
+        <v>54.81488577372511</v>
       </c>
       <c r="J20" t="n">
-        <v>561.2351601166642</v>
+        <v>121.5839606692725</v>
       </c>
       <c r="K20" t="n">
-        <v>182.222839652825</v>
+        <v>651.3840640597566</v>
       </c>
       <c r="L20" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350341</v>
       </c>
       <c r="M20" t="n">
-        <v>751.5725302939657</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N20" t="n">
-        <v>255.6094206055459</v>
+        <v>255.6094206055461</v>
       </c>
       <c r="O20" t="n">
-        <v>241.3647276480051</v>
+        <v>241.3647276480053</v>
       </c>
       <c r="P20" t="n">
         <v>205.9992108772408</v>
       </c>
       <c r="Q20" t="n">
-        <v>236.1925512260204</v>
+        <v>706.7158040369222</v>
       </c>
       <c r="R20" t="n">
         <v>260.8486822662721</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.38941582204423</v>
+        <v>52.71635840836505</v>
       </c>
       <c r="J21" t="n">
-        <v>72.41457404110251</v>
+        <v>325.0095479612413</v>
       </c>
       <c r="K21" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598985</v>
       </c>
       <c r="L21" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299746</v>
       </c>
       <c r="M21" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961141</v>
       </c>
       <c r="N21" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906244</v>
       </c>
       <c r="O21" t="n">
-        <v>182.3626293119022</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P21" t="n">
         <v>146.3620873961991</v>
       </c>
       <c r="Q21" t="n">
-        <v>495.1174373897509</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R21" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.43057660205078</v>
+        <v>132.8848040411315</v>
       </c>
       <c r="K22" t="n">
         <v>352.1901855749456</v>
       </c>
       <c r="L22" t="n">
-        <v>517.9687038524467</v>
+        <v>206.0797065660406</v>
       </c>
       <c r="M22" t="n">
-        <v>340.4180625906761</v>
+        <v>564.8528324380011</v>
       </c>
       <c r="N22" t="n">
-        <v>545.0586979658874</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O22" t="n">
         <v>514.7344358055939</v>
@@ -36302,7 +36302,7 @@
         <v>223.6992063869488</v>
       </c>
       <c r="R22" t="n">
-        <v>7.689198871994794</v>
+        <v>7.689198871994805</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,28 +36354,28 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>54.81488577372508</v>
+        <v>54.81488577372511</v>
       </c>
       <c r="J23" t="n">
-        <v>561.2351601166642</v>
+        <v>561.2351601166644</v>
       </c>
       <c r="K23" t="n">
-        <v>1025.000912337853</v>
+        <v>1025.000912337854</v>
       </c>
       <c r="L23" t="n">
-        <v>226.0635458350339</v>
+        <v>226.0635458350341</v>
       </c>
       <c r="M23" t="n">
-        <v>251.5392525235231</v>
+        <v>251.5392525235236</v>
       </c>
       <c r="N23" t="n">
-        <v>255.6094206055459</v>
+        <v>255.6094206055463</v>
       </c>
       <c r="O23" t="n">
-        <v>1231.445198931143</v>
+        <v>620.2185920587563</v>
       </c>
       <c r="P23" t="n">
-        <v>431.4492452507102</v>
+        <v>1042.675852123096</v>
       </c>
       <c r="Q23" t="n">
         <v>706.7158040369222</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.38941582204416</v>
+        <v>52.71635840836504</v>
       </c>
       <c r="J24" t="n">
-        <v>72.4145740411027</v>
+        <v>72.41457404110255</v>
       </c>
       <c r="K24" t="n">
-        <v>521.0462990757906</v>
+        <v>123.7680410598985</v>
       </c>
       <c r="L24" t="n">
         <v>166.4214051299746</v>
       </c>
       <c r="M24" t="n">
-        <v>194.2059301961144</v>
+        <v>194.2059301961141</v>
       </c>
       <c r="N24" t="n">
-        <v>199.3459832906246</v>
+        <v>199.3459832906244</v>
       </c>
       <c r="O24" t="n">
         <v>182.3626293119023</v>
@@ -36457,10 +36457,10 @@
         <v>146.3620873961991</v>
       </c>
       <c r="Q24" t="n">
-        <v>97.8391793738565</v>
+        <v>350.4341532939957</v>
       </c>
       <c r="R24" t="n">
-        <v>47.5883529142493</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.43057660205079</v>
+        <v>45.43057660205082</v>
       </c>
       <c r="K25" t="n">
-        <v>352.1901855749456</v>
+        <v>297.6471075097741</v>
       </c>
       <c r="L25" t="n">
         <v>517.9687038524467</v>
       </c>
       <c r="M25" t="n">
-        <v>564.8528324380012</v>
+        <v>564.8528324380011</v>
       </c>
       <c r="N25" t="n">
-        <v>490.515619900716</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O25" t="n">
         <v>514.7344358055939</v>
@@ -36539,7 +36539,7 @@
         <v>53.80751460479496</v>
       </c>
       <c r="R25" t="n">
-        <v>7.689198871994794</v>
+        <v>7.689198871994805</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,25 +36591,25 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>54.81488577372508</v>
+        <v>54.81488577372511</v>
       </c>
       <c r="J26" t="n">
-        <v>561.2351601166642</v>
+        <v>561.2351601166644</v>
       </c>
       <c r="K26" t="n">
-        <v>1025.000912337853</v>
+        <v>1025.000912337854</v>
       </c>
       <c r="L26" t="n">
-        <v>604.9174102457862</v>
+        <v>226.0635458350341</v>
       </c>
       <c r="M26" t="n">
-        <v>251.5392525235234</v>
+        <v>251.5392525235236</v>
       </c>
       <c r="N26" t="n">
-        <v>255.6094206055459</v>
+        <v>255.6094206055463</v>
       </c>
       <c r="O26" t="n">
-        <v>241.3647276480051</v>
+        <v>620.2185920587544</v>
       </c>
       <c r="P26" t="n">
         <v>1042.675852123096</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.38941582204424</v>
+        <v>26.38941582204423</v>
       </c>
       <c r="J27" t="n">
-        <v>72.41457404110253</v>
+        <v>72.41457404110255</v>
       </c>
       <c r="K27" t="n">
         <v>123.7680410598984</v>
       </c>
       <c r="L27" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299746</v>
       </c>
       <c r="M27" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961141</v>
       </c>
       <c r="N27" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906244</v>
       </c>
       <c r="O27" t="n">
-        <v>182.3626293119022</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P27" t="n">
         <v>146.3620873961991</v>
       </c>
       <c r="Q27" t="n">
-        <v>376.761095880317</v>
+        <v>495.1174373897506</v>
       </c>
       <c r="R27" t="n">
-        <v>165.9446944236836</v>
+        <v>47.58835291424953</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.43057660205079</v>
+        <v>132.8848040411315</v>
       </c>
       <c r="K28" t="n">
         <v>352.1901855749456</v>
       </c>
       <c r="L28" t="n">
-        <v>517.9687038524467</v>
+        <v>206.0797065660406</v>
       </c>
       <c r="M28" t="n">
-        <v>510.3097543728298</v>
+        <v>564.8528324380011</v>
       </c>
       <c r="N28" t="n">
-        <v>545.0586979658874</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O28" t="n">
         <v>514.7344358055939</v>
@@ -36773,10 +36773,10 @@
         <v>428.7344866447547</v>
       </c>
       <c r="Q28" t="n">
-        <v>53.80751460479496</v>
+        <v>223.6992063869488</v>
       </c>
       <c r="R28" t="n">
-        <v>7.689198871994794</v>
+        <v>7.689198871994805</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,28 +36828,28 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>54.81488577372508</v>
+        <v>54.81488577372511</v>
       </c>
       <c r="J29" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K29" t="n">
-        <v>1025.000912337853</v>
+        <v>1025.000912337854</v>
       </c>
       <c r="L29" t="n">
-        <v>1263.947675153219</v>
+        <v>777.3698057955453</v>
       </c>
       <c r="M29" t="n">
         <v>251.5392525235234</v>
       </c>
       <c r="N29" t="n">
-        <v>605.7081924937279</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O29" t="n">
         <v>1231.445198931143</v>
       </c>
       <c r="P29" t="n">
-        <v>205.9992108772412</v>
+        <v>1042.675852123096</v>
       </c>
       <c r="Q29" t="n">
         <v>154.69682832117</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.38941582204424</v>
+        <v>52.71635840836507</v>
       </c>
       <c r="J30" t="n">
         <v>400.2512659261655</v>
       </c>
       <c r="K30" t="n">
-        <v>123.7680410598983</v>
+        <v>123.7680410598985</v>
       </c>
       <c r="L30" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299746</v>
       </c>
       <c r="M30" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961141</v>
       </c>
       <c r="N30" t="n">
-        <v>199.3459832906242</v>
+        <v>199.3459832906244</v>
       </c>
       <c r="O30" t="n">
         <v>182.3626293119023</v>
@@ -36931,10 +36931,10 @@
         <v>146.3620873961991</v>
       </c>
       <c r="Q30" t="n">
-        <v>97.83917937385672</v>
+        <v>140.9538029183668</v>
       </c>
       <c r="R30" t="n">
-        <v>117.029919045081</v>
+        <v>47.58835291424953</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.43057660205079</v>
+        <v>132.8848040411315</v>
       </c>
       <c r="K31" t="n">
-        <v>127.7554157276205</v>
+        <v>352.1901855749456</v>
       </c>
       <c r="L31" t="n">
         <v>517.9687038524467</v>
       </c>
       <c r="M31" t="n">
-        <v>564.8528324380011</v>
+        <v>252.963835151595</v>
       </c>
       <c r="N31" t="n">
-        <v>545.0586979658874</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O31" t="n">
         <v>514.7344358055939</v>
@@ -37013,7 +37013,7 @@
         <v>223.6992063869488</v>
       </c>
       <c r="R31" t="n">
-        <v>7.689198871994794</v>
+        <v>7.689198871994805</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,22 +37065,22 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>54.81488577372508</v>
+        <v>54.81488577372511</v>
       </c>
       <c r="J32" t="n">
-        <v>121.5839606692725</v>
+        <v>121.5839606692726</v>
       </c>
       <c r="K32" t="n">
-        <v>1025.000912337853</v>
+        <v>853.425504912859</v>
       </c>
       <c r="L32" t="n">
-        <v>777.3698057955464</v>
+        <v>226.0635458350341</v>
       </c>
       <c r="M32" t="n">
         <v>251.5392525235234</v>
       </c>
       <c r="N32" t="n">
-        <v>255.6094206055459</v>
+        <v>255.6094206055461</v>
       </c>
       <c r="O32" t="n">
         <v>1231.445198931143</v>
@@ -37089,10 +37089,10 @@
         <v>1042.675852123096</v>
       </c>
       <c r="Q32" t="n">
-        <v>154.69682832117</v>
+        <v>706.7158040369222</v>
       </c>
       <c r="R32" t="n">
-        <v>89.98599059651769</v>
+        <v>260.8486822662717</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.38941582204424</v>
+        <v>52.71635840836504</v>
       </c>
       <c r="J33" t="n">
-        <v>400.2512659261655</v>
+        <v>325.0095479612415</v>
       </c>
       <c r="K33" t="n">
-        <v>123.7680410598983</v>
+        <v>123.7680410598985</v>
       </c>
       <c r="L33" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299746</v>
       </c>
       <c r="M33" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961141</v>
       </c>
       <c r="N33" t="n">
-        <v>199.3459832906242</v>
+        <v>199.3459832906244</v>
       </c>
       <c r="O33" t="n">
         <v>182.3626293119023</v>
@@ -37171,7 +37171,7 @@
         <v>97.83917937385672</v>
       </c>
       <c r="R33" t="n">
-        <v>117.029919045081</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>132.8848040411314</v>
+        <v>45.43057660205082</v>
       </c>
       <c r="K34" t="n">
-        <v>352.1901855749456</v>
+        <v>297.6471075097741</v>
       </c>
       <c r="L34" t="n">
         <v>517.9687038524467</v>
@@ -37238,19 +37238,19 @@
         <v>564.8528324380011</v>
       </c>
       <c r="N34" t="n">
-        <v>545.0586979658874</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O34" t="n">
         <v>514.7344358055939</v>
       </c>
       <c r="P34" t="n">
-        <v>116.8454893583489</v>
+        <v>428.7344866447547</v>
       </c>
       <c r="Q34" t="n">
-        <v>223.6992063869488</v>
+        <v>53.80751460479496</v>
       </c>
       <c r="R34" t="n">
-        <v>7.689198871994794</v>
+        <v>7.689198871994805</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,28 +37302,28 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>54.81488577372508</v>
+        <v>54.81488577372511</v>
       </c>
       <c r="J35" t="n">
-        <v>561.2351601166642</v>
+        <v>561.2351601166644</v>
       </c>
       <c r="K35" t="n">
-        <v>211.7328646123655</v>
+        <v>182.2228396528252</v>
       </c>
       <c r="L35" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350341</v>
       </c>
       <c r="M35" t="n">
         <v>251.5392525235234</v>
       </c>
       <c r="N35" t="n">
-        <v>255.6094206055459</v>
+        <v>255.6094206055461</v>
       </c>
       <c r="O35" t="n">
-        <v>241.3647276480051</v>
+        <v>241.3647276480053</v>
       </c>
       <c r="P35" t="n">
-        <v>205.9992108772408</v>
+        <v>235.5092358367804</v>
       </c>
       <c r="Q35" t="n">
         <v>706.7158040369222</v>
@@ -37384,31 +37384,31 @@
         <v>52.71635840836505</v>
       </c>
       <c r="J36" t="n">
-        <v>400.2512659261655</v>
+        <v>72.41457404110255</v>
       </c>
       <c r="K36" t="n">
-        <v>123.7680410598983</v>
+        <v>123.7680410598985</v>
       </c>
       <c r="L36" t="n">
         <v>166.4214051299745</v>
       </c>
       <c r="M36" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961141</v>
       </c>
       <c r="N36" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906244</v>
       </c>
       <c r="O36" t="n">
-        <v>182.3626293119023</v>
+        <v>182.3626293119024</v>
       </c>
       <c r="P36" t="n">
         <v>146.3620873961991</v>
       </c>
       <c r="Q36" t="n">
-        <v>140.953802918367</v>
+        <v>350.4341532939955</v>
       </c>
       <c r="R36" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.43057660205078</v>
+        <v>45.4305766020508</v>
       </c>
       <c r="K37" t="n">
-        <v>127.7554157276205</v>
+        <v>297.6471075097742</v>
       </c>
       <c r="L37" t="n">
         <v>517.9687038524467</v>
@@ -37475,7 +37475,7 @@
         <v>564.8528324380011</v>
       </c>
       <c r="N37" t="n">
-        <v>545.0586979658874</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O37" t="n">
         <v>514.7344358055939</v>
@@ -37484,10 +37484,10 @@
         <v>428.7344866447547</v>
       </c>
       <c r="Q37" t="n">
-        <v>223.6992063869488</v>
+        <v>53.80751460479496</v>
       </c>
       <c r="R37" t="n">
-        <v>7.689198871994794</v>
+        <v>7.689198871994805</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,16 +37539,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>54.81488577372508</v>
+        <v>54.81488577372511</v>
       </c>
       <c r="J38" t="n">
-        <v>121.5839606692725</v>
+        <v>561.2351601166644</v>
       </c>
       <c r="K38" t="n">
-        <v>751.5725302939657</v>
+        <v>182.2228396528252</v>
       </c>
       <c r="L38" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350341</v>
       </c>
       <c r="M38" t="n">
         <v>251.5392525235234</v>
@@ -37557,16 +37557,16 @@
         <v>255.6094206055461</v>
       </c>
       <c r="O38" t="n">
-        <v>241.3647276480051</v>
+        <v>241.3647276480053</v>
       </c>
       <c r="P38" t="n">
-        <v>751.5725302939659</v>
+        <v>751.5725302939657</v>
       </c>
       <c r="Q38" t="n">
-        <v>231.816710055743</v>
+        <v>190.6525095797369</v>
       </c>
       <c r="R38" t="n">
-        <v>89.98599059651769</v>
+        <v>260.8486822662721</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>52.71635840836505</v>
       </c>
       <c r="J39" t="n">
-        <v>72.4145740411025</v>
+        <v>325.0095479612413</v>
       </c>
       <c r="K39" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598985</v>
       </c>
       <c r="L39" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299746</v>
       </c>
       <c r="M39" t="n">
-        <v>194.2059301961139</v>
+        <v>194.2059301961141</v>
       </c>
       <c r="N39" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906244</v>
       </c>
       <c r="O39" t="n">
-        <v>182.3626293119024</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P39" t="n">
-        <v>398.9570613163382</v>
+        <v>146.3620873961991</v>
       </c>
       <c r="Q39" t="n">
         <v>97.83917937385672</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>98.52959925082229</v>
+        <v>132.8848040411315</v>
       </c>
       <c r="K40" t="n">
-        <v>74.65639307884902</v>
+        <v>352.1901855749456</v>
       </c>
       <c r="L40" t="n">
         <v>517.9687038524467</v>
@@ -37712,7 +37712,7 @@
         <v>564.8528324380011</v>
       </c>
       <c r="N40" t="n">
-        <v>545.0586979658874</v>
+        <v>233.1697006794816</v>
       </c>
       <c r="O40" t="n">
         <v>514.7344358055939</v>
@@ -37724,7 +37724,7 @@
         <v>223.6992063869488</v>
       </c>
       <c r="R40" t="n">
-        <v>7.689198871994794</v>
+        <v>7.689198871994805</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,25 +37776,25 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>54.81488577372508</v>
+        <v>54.81488577372511</v>
       </c>
       <c r="J41" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K41" t="n">
-        <v>182.2228396528251</v>
+        <v>182.2228396528252</v>
       </c>
       <c r="L41" t="n">
+        <v>747.2104681872758</v>
+      </c>
+      <c r="M41" t="n">
         <v>751.5725302939657</v>
       </c>
-      <c r="M41" t="n">
-        <v>251.5392525235234</v>
-      </c>
       <c r="N41" t="n">
-        <v>255.6094206055459</v>
+        <v>255.6094206055461</v>
       </c>
       <c r="O41" t="n">
-        <v>737.0359433117578</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P41" t="n">
         <v>205.9992108772408</v>
@@ -37861,16 +37861,16 @@
         <v>400.2512659261655</v>
       </c>
       <c r="K42" t="n">
-        <v>123.7680410598983</v>
+        <v>123.7680410598985</v>
       </c>
       <c r="L42" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299746</v>
       </c>
       <c r="M42" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961141</v>
       </c>
       <c r="N42" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906244</v>
       </c>
       <c r="O42" t="n">
         <v>182.3626293119023</v>
@@ -37879,7 +37879,7 @@
         <v>146.3620873961991</v>
       </c>
       <c r="Q42" t="n">
-        <v>140.953802918367</v>
+        <v>140.9538029183666</v>
       </c>
       <c r="R42" t="n">
         <v>47.58835291424953</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.43057660205078</v>
+        <v>45.4305766020508</v>
       </c>
       <c r="K43" t="n">
         <v>352.1901855749456</v>
@@ -37946,13 +37946,13 @@
         <v>517.9687038524467</v>
       </c>
       <c r="M43" t="n">
-        <v>564.8528324380011</v>
+        <v>564.8528324380012</v>
       </c>
       <c r="N43" t="n">
-        <v>545.0586979658876</v>
+        <v>545.0586979658879</v>
       </c>
       <c r="O43" t="n">
-        <v>290.2996659582686</v>
+        <v>290.2996659582682</v>
       </c>
       <c r="P43" t="n">
         <v>428.7344866447547</v>
@@ -37961,7 +37961,7 @@
         <v>223.6992063869488</v>
       </c>
       <c r="R43" t="n">
-        <v>7.689198871994794</v>
+        <v>7.689198871994805</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>54.81488577372508</v>
+        <v>54.81488577372511</v>
       </c>
       <c r="J44" t="n">
-        <v>121.5839606692725</v>
+        <v>561.2351601166644</v>
       </c>
       <c r="K44" t="n">
-        <v>182.2228396528251</v>
+        <v>389.0412125811466</v>
       </c>
       <c r="L44" t="n">
-        <v>226.0635458350339</v>
+        <v>226.0635458350341</v>
       </c>
       <c r="M44" t="n">
+        <v>251.5392525235234</v>
+      </c>
+      <c r="N44" t="n">
+        <v>255.6094206055461</v>
+      </c>
+      <c r="O44" t="n">
+        <v>241.3647276480053</v>
+      </c>
+      <c r="P44" t="n">
         <v>751.5725302939657</v>
       </c>
-      <c r="N44" t="n">
-        <v>255.6094206055459</v>
-      </c>
-      <c r="O44" t="n">
-        <v>381.3553659542495</v>
-      </c>
-      <c r="P44" t="n">
-        <v>205.9992108772408</v>
-      </c>
       <c r="Q44" t="n">
-        <v>706.7158040369222</v>
+        <v>154.69682832117</v>
       </c>
       <c r="R44" t="n">
         <v>89.98599059651769</v>
@@ -38095,19 +38095,19 @@
         <v>52.71635840836505</v>
       </c>
       <c r="J45" t="n">
-        <v>72.4145740411025</v>
+        <v>325.0095479612413</v>
       </c>
       <c r="K45" t="n">
-        <v>376.3630149800376</v>
+        <v>123.7680410598985</v>
       </c>
       <c r="L45" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299746</v>
       </c>
       <c r="M45" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961141</v>
       </c>
       <c r="N45" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906244</v>
       </c>
       <c r="O45" t="n">
         <v>182.3626293119023</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>132.8848040411314</v>
+        <v>45.4305766020508</v>
       </c>
       <c r="K46" t="n">
-        <v>352.1901855749455</v>
+        <v>352.1901855749456</v>
       </c>
       <c r="L46" t="n">
-        <v>206.079706566041</v>
+        <v>517.9687038524467</v>
       </c>
       <c r="M46" t="n">
-        <v>564.8528324380011</v>
+        <v>564.8528324380012</v>
       </c>
       <c r="N46" t="n">
-        <v>545.0586979658874</v>
+        <v>545.0586979658879</v>
       </c>
       <c r="O46" t="n">
         <v>514.7344358055939</v>
       </c>
       <c r="P46" t="n">
-        <v>428.7344866447547</v>
+        <v>374.1914085795829</v>
       </c>
       <c r="Q46" t="n">
-        <v>223.6992063869488</v>
+        <v>53.80751460479496</v>
       </c>
       <c r="R46" t="n">
-        <v>7.689198871994794</v>
+        <v>7.689198871994805</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
